--- a/data/Porvenir.xlsx
+++ b/data/Porvenir.xlsx
@@ -5848,7 +5848,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Saneamiento Ambiental de 148 Fosas Tres Lagos-Flamenco Saneamiento Ambiental de 148 Fosas. (e-seia)</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5858,16 +5858,16 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Duodécima</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Empresa Nacional del Petróleo - Magallanes</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>200</v>
+        <v>4500</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
@@ -5876,12 +5876,12 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1899698&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -5896,7 +5896,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Saneamiento Ambiental de 148 Fosas Tres Lagos-Flamenco Saneamiento Ambiental de 148 Fosas. (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5906,16 +5906,16 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Duodécima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Empresa Nacional del Petróleo - Magallanes</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>4500</v>
+        <v>200</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
@@ -5924,12 +5924,12 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1899698&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">

--- a/data/Porvenir.xlsx
+++ b/data/Porvenir.xlsx
@@ -5848,7 +5848,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Saneamiento Ambiental de 148 Fosas Tres Lagos-Flamenco Saneamiento Ambiental de 148 Fosas. (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5858,16 +5858,16 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Duodécima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Empresa Nacional del Petróleo - Magallanes</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>4500</v>
+        <v>200</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
@@ -5876,12 +5876,12 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1899698&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -5896,7 +5896,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Saneamiento Ambiental de 148 Fosas Tres Lagos-Flamenco Saneamiento Ambiental de 148 Fosas. (e-seia)</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5906,16 +5906,16 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Duodécima</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Empresa Nacional del Petróleo - Magallanes</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>200</v>
+        <v>4500</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
@@ -5924,12 +5924,12 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1899698&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">

--- a/data/Porvenir.xlsx
+++ b/data/Porvenir.xlsx
@@ -452,7 +452,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -5848,7 +5848,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Saneamiento Ambiental de 148 Fosas Tres Lagos-Flamenco Saneamiento Ambiental de 148 Fosas. (e-seia)</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5858,16 +5858,16 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Duodécima</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Empresa Nacional del Petróleo - Magallanes</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>200</v>
+        <v>4500</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
@@ -5876,12 +5876,12 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1899698&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -5896,7 +5896,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Saneamiento Ambiental de 148 Fosas Tres Lagos-Flamenco Saneamiento Ambiental de 148 Fosas. (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5906,16 +5906,16 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Duodécima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Empresa Nacional del Petróleo - Magallanes</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>4500</v>
+        <v>200</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
@@ -5924,12 +5924,12 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1899698&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">

--- a/data/Porvenir.xlsx
+++ b/data/Porvenir.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J161"/>
+  <dimension ref="A1:J162"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Saneamiento de Fosas de Hidrocarburos en Sector Isla y Continente</t>
+          <t>Centro de Gestión de Residuos Sólidos Tierra del Fuego</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -439,25 +439,25 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Empresa Nacional del Petróleo - Magallanes</t>
+          <t>Gobierno Regional de Magallanes y Antártica Chilena</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>50000</v>
+        <v>21780</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>18/02/2021</t>
+          <t>18/07/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2149760633&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156472061&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -495,17 +495,17 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>18/01/2021</t>
+          <t>18/02/2021</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2149740983&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2149760633&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ampliación Capacidad de Producción Planta Nova Austral en Porvenir</t>
+          <t>Saneamiento de Fosas de Hidrocarburos en Sector Isla y Continente</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -535,25 +535,25 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Nova Austral S.A.</t>
+          <t>Empresa Nacional del Petróleo - Magallanes</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>350</v>
+        <v>50000</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>21/04/2020</t>
+          <t>18/01/2021</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146333673&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2149740983&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,7 +568,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Línea de Flujo Carpintero X-1 a Estación de Transferencia de Flujo Cisne Sur</t>
+          <t>Ampliación Capacidad de Producción Planta Nova Austral en Porvenir</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,15 +583,15 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>YPF Chile S.A.</t>
+          <t>Nova Austral S.A.</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>290</v>
+        <v>350</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>19/02/2020</t>
+          <t>21/04/2020</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -601,7 +601,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145665823&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146333673&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Desarrollo del pozo Leún x-1</t>
+          <t>Línea de Flujo Carpintero X-1 a Estación de Transferencia de Flujo Cisne Sur</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -631,15 +631,15 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>GeoPark TDF SpA</t>
+          <t>YPF Chile S.A.</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1760</v>
+        <v>290</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>26/12/2019</t>
+          <t>19/02/2020</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -649,7 +649,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145284222&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145665823&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -687,17 +687,17 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>19/12/2019</t>
+          <t>26/12/2019</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145254872&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145284222&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Línea de Flujo Carpintero X-1 a Estación de Transferencia de Flujo Cisne Sur</t>
+          <t>Desarrollo del pozo Leún x-1</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -727,25 +727,25 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>YPF Chile S.A.</t>
+          <t>GeoPark TDF SpA</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>290</v>
+        <v>1760</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>18/11/2019</t>
+          <t>19/12/2019</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144976010&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145254872&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Línea de Flujo Carpintero X-1 Cisne Sur X-1</t>
+          <t>Línea de Flujo Carpintero X-1 a Estación de Transferencia de Flujo Cisne Sur</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -783,17 +783,17 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>28/10/2019</t>
+          <t>18/11/2019</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144524024&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144976010&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Estación de Transferencia de Flujo Cisne Sur</t>
+          <t>Línea de Flujo Carpintero X-1 Cisne Sur X-1</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -827,21 +827,21 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>27096</v>
+        <v>290</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>16/08/2019</t>
+          <t>28/10/2019</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144004376&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144524024&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -879,17 +879,17 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>13/08/2019</t>
+          <t>16/08/2019</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143918660&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144004376&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>GENÉRICA SUB-BLOQUES ARENAL NORTE Y SUR</t>
+          <t>Estación de Transferencia de Flujo Cisne Sur</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -919,25 +919,25 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Empresa Nacional del Petróleo - Magallanes</t>
+          <t>YPF Chile S.A.</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>213000</v>
+        <v>27096</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>05/08/2019</t>
+          <t>13/08/2019</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143851908&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143918660&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>EXTRACCIÓN Y PROCESAMIENTO DE ÁRIDOS SANTA GEMITA</t>
+          <t>GENÉRICA SUB-BLOQUES ARENAL NORTE Y SUR</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -967,25 +967,25 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Constructora Vilicic S.A</t>
+          <t>Empresa Nacional del Petróleo - Magallanes</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>600</v>
+        <v>213000</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>06/02/2019</t>
+          <t>05/08/2019</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142430234&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143851908&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Modificación RCA 120/2010 Ampliación Productiva Planta Aquaprotein S.A.</t>
+          <t>EXTRACCIÓN Y PROCESAMIENTO DE ÁRIDOS SANTA GEMITA</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1015,15 +1015,15 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>AQUAPROTEIN S. A.</t>
+          <t>Constructora Vilicic S.A</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>14000</v>
+        <v>600</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>24/05/2018</t>
+          <t>06/02/2019</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1033,7 +1033,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2139198134&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142430234&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1071,17 +1071,17 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>25/04/2018</t>
+          <t>24/05/2018</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138993038&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2139198134&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Extracción de Áridos Aurora</t>
+          <t>Modificación RCA 120/2010 Ampliación Productiva Planta Aquaprotein S.A.</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1111,25 +1111,25 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Constructora Vilicic S.A</t>
+          <t>AQUAPROTEIN S. A.</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>200</v>
+        <v>14000</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>04/04/2018</t>
+          <t>25/04/2018</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138836687&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138993038&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Modificación RCA 120/2010 Ampliación Productiva Planta Aquaprotein S.A.</t>
+          <t>Extracción de Áridos Aurora</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1159,25 +1159,25 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>AQUAPROTEIN S. A.</t>
+          <t>Constructora Vilicic S.A</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>14000</v>
+        <v>200</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>28/02/2018</t>
+          <t>04/04/2018</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138577022&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138836687&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Extracción de Áridos Cuevas</t>
+          <t>Modificación RCA 120/2010 Ampliación Productiva Planta Aquaprotein S.A.</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1207,25 +1207,25 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Constructora Vilicic S.A</t>
+          <t>AQUAPROTEIN S. A.</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>220</v>
+        <v>14000</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>13/12/2017</t>
+          <t>28/02/2018</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2137941964&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138577022&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>GENÉRICA SUB-BLOQUES ARENAL</t>
+          <t>Extracción de Áridos Cuevas</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1255,11 +1255,11 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Empresa Nacional del Petróleo - Magallanes</t>
+          <t>Constructora Vilicic S.A</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>186000</v>
+        <v>220</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -1273,7 +1273,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2136001974&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2137941964&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Extracción de Aridos García</t>
+          <t>GENÉRICA SUB-BLOQUES ARENAL</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1303,15 +1303,15 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Constructora Vilicic S.A</t>
+          <t>Empresa Nacional del Petróleo - Magallanes</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>200</v>
+        <v>186000</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>09/08/2017</t>
+          <t>13/12/2017</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1321,7 +1321,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132624055&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2136001974&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de RILes y Modificación Sistema Tratamiento de Vahos, Aquaprotein S.A.</t>
+          <t>Extracción de Aridos García</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1351,15 +1351,15 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>AQUAPROTEIN S. A.</t>
+          <t>Constructora Vilicic S.A</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1785</v>
+        <v>200</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>17/03/2017</t>
+          <t>09/08/2017</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1369,7 +1369,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132259859&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132624055&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Ampliación Planta y Modificación Sistema Tratamiento de Vahos, Aquaprotein S.A.</t>
+          <t>Planta de Tratamiento de RILes y Modificación Sistema Tratamiento de Vahos, Aquaprotein S.A.</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1403,21 +1403,21 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1050</v>
+        <v>1785</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>22/02/2017</t>
+          <t>17/03/2017</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132201836&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132259859&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Planta Faenadora y Procesadora de Carnes Tierra del Fuego Limitada</t>
+          <t>Ampliación Planta y Modificación Sistema Tratamiento de Vahos, Aquaprotein S.A.</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1447,25 +1447,25 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Faenadora y Procesadora de Carnes Tierra del Fuego Limitada</t>
+          <t>AQUAPROTEIN S. A.</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1750</v>
+        <v>1050</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>18/01/2017</t>
+          <t>22/02/2017</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132089027&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132201836&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Fractura hidráulica y construcción de línea de flujo pozo Chercán Oeste x-1</t>
+          <t>Planta Faenadora y Procesadora de Carnes Tierra del Fuego Limitada</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1495,11 +1495,11 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>GeoPark TDF SpA</t>
+          <t>Faenadora y Procesadora de Carnes Tierra del Fuego Limitada</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1620</v>
+        <v>1750</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -1513,7 +1513,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132008670&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132089027&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>GENÉRICA SUB-BLOQUES ARENAL</t>
+          <t>Fractura hidráulica y construcción de línea de flujo pozo Chercán Oeste x-1</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1543,25 +1543,25 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Empresa Nacional del Petróleo - Magallanes</t>
+          <t>GeoPark TDF SpA</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>42000</v>
+        <v>1620</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>03/01/2017</t>
+          <t>18/01/2017</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132033725&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132008670&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Piscicultura de Recirculacion Tierra del Fuego</t>
+          <t>GENÉRICA SUB-BLOQUES ARENAL</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1591,25 +1591,25 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Piscicultura Tierra del Fuego S.A</t>
+          <t>Empresa Nacional del Petróleo - Magallanes</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>32000</v>
+        <v>42000</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>18/11/2016</t>
+          <t>03/01/2017</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131940597&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132033725&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Estimulación hidráulica pozo Tenca x-1 y habilitación de pozos sumideros Chilco x-1 y Kaum x-1</t>
+          <t>Piscicultura de Recirculacion Tierra del Fuego</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1639,15 +1639,15 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>GeoPark TDF SpA</t>
+          <t>Piscicultura Tierra del Fuego S.A</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1240</v>
+        <v>32000</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>09/08/2016</t>
+          <t>18/11/2016</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -1657,7 +1657,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131658290&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131940597&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Planta Faenadora y Procesadora de Carnes Tierra del Fuego Limitada</t>
+          <t>Estimulación hidráulica pozo Tenca x-1 y habilitación de pozos sumideros Chilco x-1 y Kaum x-1</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1687,25 +1687,25 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Faenadora y Procesadora de Carnes Tierra del Fuego Limitada</t>
+          <t>GeoPark TDF SpA</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1727</v>
+        <v>1240</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>18/07/2016</t>
+          <t>09/08/2016</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131608949&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131658290&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1743,17 +1743,17 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>17/06/2016</t>
+          <t>18/07/2016</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131455209&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131608949&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Fracturación Hidráulica en 21 Pozos de Hidrocarburos, Isla Tierra del Fuego</t>
+          <t>Planta Faenadora y Procesadora de Carnes Tierra del Fuego Limitada</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1783,25 +1783,25 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Empresa Nacional del Petróleo - Magallanes</t>
+          <t>Faenadora y Procesadora de Carnes Tierra del Fuego Limitada</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>21000</v>
+        <v>1727</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>22/09/2015</t>
+          <t>17/06/2016</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130744373&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131455209&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>GENÉRICA 4 SUB-BLOQUES DE ARENAL</t>
+          <t>Fracturación Hidráulica en 21 Pozos de Hidrocarburos, Isla Tierra del Fuego</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1835,11 +1835,11 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>204000</v>
+        <v>21000</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>02/09/2015</t>
+          <t>22/09/2015</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -1849,7 +1849,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130741119&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130744373&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Líneas de Flujo a Baterías Golondrina, Chañarcillo Sur, Planta Sara, Flamenco y Gaviota Norte en Isla Tierra del Fuego</t>
+          <t>GENÉRICA 4 SUB-BLOQUES DE ARENAL</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1883,11 +1883,11 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>1600</v>
+        <v>204000</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>18/06/2015</t>
+          <t>02/09/2015</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -1897,7 +1897,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130565487&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130741119&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1935,17 +1935,17 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>18/05/2015</t>
+          <t>18/06/2015</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130478412&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130565487&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>REINYECCIÓN DE FLUIDOS PRODUCTO DE LA EXTRACCIÓN DE HIDROCARBUROS EN 10 POZOS EXISTENTES EN ISLA</t>
+          <t>Líneas de Flujo a Baterías Golondrina, Chañarcillo Sur, Planta Sara, Flamenco y Gaviota Norte en Isla Tierra del Fuego</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1979,21 +1979,21 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>1144</v>
+        <v>1600</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>15/05/2015</t>
+          <t>18/05/2015</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130463964&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130478412&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Genérica Bloque San Sebastián</t>
+          <t>REINYECCIÓN DE FLUIDOS PRODUCTO DE LA EXTRACCIÓN DE HIDROCARBUROS EN 10 POZOS EXISTENTES EN ISLA</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2023,15 +2023,15 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>YPF Chile S.A.</t>
+          <t>Empresa Nacional del Petróleo - Magallanes</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>21440</v>
+        <v>1144</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>14/05/2015</t>
+          <t>15/05/2015</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -2041,7 +2041,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130460159&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130463964&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2079,17 +2079,17 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>27/04/2015</t>
+          <t>14/05/2015</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130425081&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130460159&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Línea de Flujo Fortuna Sur 1 (Ex A)</t>
+          <t>Genérica Bloque San Sebastián</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2119,25 +2119,25 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Empresa Nacional del Petróleo - Magallanes</t>
+          <t>YPF Chile S.A.</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>375</v>
+        <v>21440</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>18/03/2015</t>
+          <t>27/04/2015</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130328026&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130425081&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Modificación Línea de Flujo Chirihue-Tenca</t>
+          <t>Línea de Flujo Fortuna Sur 1 (Ex A)</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2167,15 +2167,15 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>GeoPark TDF SpA</t>
+          <t>Empresa Nacional del Petróleo - Magallanes</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>220</v>
+        <v>375</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>16/01/2015</t>
+          <t>18/03/2015</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -2185,7 +2185,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130160057&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130328026&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Construcción de Línea de Flujo pozo Tenca 3</t>
+          <t>Modificación Línea de Flujo Chirihue-Tenca</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2219,11 +2219,11 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>982</v>
+        <v>220</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>19/11/2014</t>
+          <t>16/01/2015</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -2233,7 +2233,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129979310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130160057&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Fracturación Hidráulica Pozos Lynch PK-A y Lynch Norte PK-A, Bloque Intracampos</t>
+          <t>Construcción de Línea de Flujo pozo Tenca 3</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2263,15 +2263,15 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Empresa Nacional del Petróleo - Magallanes</t>
+          <t>GeoPark TDF SpA</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>3600</v>
+        <v>982</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>06/11/2014</t>
+          <t>19/11/2014</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -2281,7 +2281,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129930279&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129979310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Construcción de Línea de flujo pozo Chercán 3</t>
+          <t>Fracturación Hidráulica Pozos Lynch PK-A y Lynch Norte PK-A, Bloque Intracampos</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2311,15 +2311,15 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>GeoPark TDF SpA</t>
+          <t>Empresa Nacional del Petróleo - Magallanes</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>1050</v>
+        <v>3600</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>20/08/2014</t>
+          <t>06/11/2014</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -2329,7 +2329,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129739344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129930279&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Fracturación Hidráulica en 14 Pozos de Hidrocarburos, Bloques Arenal e Intracampos</t>
+          <t>Construcción de Línea de flujo pozo Chercán 3</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2359,15 +2359,15 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Empresa Nacional del Petróleo - Magallanes</t>
+          <t>GeoPark TDF SpA</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>25200</v>
+        <v>1050</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>04/08/2014</t>
+          <t>20/08/2014</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -2377,7 +2377,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129692353&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129739344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Construcción Línea de flujo Chirihue-Tenca</t>
+          <t>Fracturación Hidráulica en 14 Pozos de Hidrocarburos, Bloques Arenal e Intracampos</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2407,15 +2407,15 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>GeoPark TDF SpA</t>
+          <t>Empresa Nacional del Petróleo - Magallanes</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>1200</v>
+        <v>25200</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>18/07/2014</t>
+          <t>04/08/2014</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -2425,7 +2425,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129651984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129692353&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Ampliación Polígono TN</t>
+          <t>Construcción Línea de flujo Chirihue-Tenca</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2459,11 +2459,11 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>32500</v>
+        <v>1200</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>27/06/2014</t>
+          <t>18/07/2014</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -2473,7 +2473,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129589845&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129651984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Perforación de Pozos Hidrocarburíferos en Área Koshpy</t>
+          <t>Ampliación Polígono TN</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2507,11 +2507,11 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>75000</v>
+        <v>32500</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>26/06/2014</t>
+          <t>27/06/2014</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -2521,7 +2521,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129585989&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129589845&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Perforación de Pozos Hidrocarburíferos en Área Koresken</t>
+          <t>Perforación de Pozos Hidrocarburíferos en Área Koshpy</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2559,7 +2559,7 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>02/06/2014</t>
+          <t>26/06/2014</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
@@ -2569,7 +2569,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129510170&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129585989&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Perforación de Pozos Hidrocarburíferos en Área Yowhen</t>
+          <t>Perforación de Pozos Hidrocarburíferos en Área Koresken</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2603,7 +2603,7 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>70000</v>
+        <v>75000</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
@@ -2617,7 +2617,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129506726&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129510170&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Transporte de hidrocarburos, Bloque Flamenco</t>
+          <t>Perforación de Pozos Hidrocarburíferos en Área Yowhen</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2651,11 +2651,11 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>1000</v>
+        <v>70000</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>29/05/2014</t>
+          <t>02/06/2014</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -2665,7 +2665,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129498686&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129506726&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Perforación de Pozos Hidrocarburíferos en Área Taiyin Norte</t>
+          <t>Transporte de hidrocarburos, Bloque Flamenco</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2699,11 +2699,11 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>22500</v>
+        <v>1000</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>22/04/2014</t>
+          <t>29/05/2014</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
@@ -2713,7 +2713,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129421024&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129498686&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Construcción de Línea de flujo pozo Chercán 2</t>
+          <t>Perforación de Pozos Hidrocarburíferos en Área Taiyin Norte</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2747,11 +2747,11 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>1000</v>
+        <v>22500</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>21/04/2014</t>
+          <t>22/04/2014</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -2761,7 +2761,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129409774&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129421024&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Perforación de Pozos Hidrocarburíferos en Área Tenenesk</t>
+          <t>Construcción de Línea de flujo pozo Chercán 2</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2795,7 +2795,7 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>75000</v>
+        <v>1000</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
@@ -2809,7 +2809,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129404472&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129409774&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Desarrollo del pozo Koshpy x-1</t>
+          <t>Perforación de Pozos Hidrocarburíferos en Área Tenenesk</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2843,11 +2843,11 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>800</v>
+        <v>75000</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>17/04/2014</t>
+          <t>21/04/2014</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -2857,7 +2857,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129407569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129404472&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Construcción de Línea de flujo pozo Cupanaca x-1</t>
+          <t>Desarrollo del pozo Koshpy x-1</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2891,11 +2891,11 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>977</v>
+        <v>800</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>21/03/2014</t>
+          <t>17/04/2014</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
@@ -2905,7 +2905,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129345520&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129407569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Construcción del Colector Troncal Flamenco</t>
+          <t>Construcción de Línea de flujo pozo Cupanaca x-1</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2935,11 +2935,11 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Empresa Nacional del Petróleo - Magallanes</t>
+          <t>GeoPark TDF SpA</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>7500</v>
+        <v>977</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
@@ -2953,7 +2953,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129346196&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129345520&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Construcción de Línea de flujo pozo Chirihue x-1</t>
+          <t>Construcción del Colector Troncal Flamenco</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2983,15 +2983,15 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>GeoPark TDF SpA</t>
+          <t>Empresa Nacional del Petróleo - Magallanes</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>976</v>
+        <v>7500</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>20/03/2014</t>
+          <t>21/03/2014</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
@@ -3001,7 +3001,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129341971&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129346196&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Construcción de Línea de Flujo Pozo Tenca x-1</t>
+          <t>Construcción de Línea de flujo pozo Chirihue x-1</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3035,11 +3035,11 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>972</v>
+        <v>976</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>27/02/2014</t>
+          <t>20/03/2014</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
@@ -3049,7 +3049,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129278942&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129341971&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Construcción de Línea de Flujo Pozo Kaum x-1</t>
+          <t>Construcción de Línea de Flujo Pozo Tenca x-1</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3083,7 +3083,7 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>1131</v>
+        <v>972</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
@@ -3097,7 +3097,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129278836&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129278942&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Construcción de línea de flujo pozo Chilco x-1</t>
+          <t>Construcción de Línea de Flujo Pozo Kaum x-1</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3131,11 +3131,11 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>672</v>
+        <v>1131</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>22/01/2014</t>
+          <t>27/02/2014</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
@@ -3145,7 +3145,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129153658&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129278836&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3160,7 +3160,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>PERFORACIÓN DE POZOS EXPLORATORIOS FORTUNA SUR A Y ROSAL B</t>
+          <t>Construcción de línea de flujo pozo Chilco x-1</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3175,15 +3175,15 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Empresa Nacional del Petróleo - Magallanes</t>
+          <t>GeoPark TDF SpA</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>2400</v>
+        <v>672</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>23/12/2013</t>
+          <t>22/01/2014</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
@@ -3193,7 +3193,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972447&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129153658&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Perforación de Pozos Hidrocarburíferos en Área Kloketen</t>
+          <t>PERFORACIÓN DE POZOS EXPLORATORIOS FORTUNA SUR A Y ROSAL B</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3223,15 +3223,15 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>GeoPark TDF SpA</t>
+          <t>Empresa Nacional del Petróleo - Magallanes</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>37500</v>
+        <v>2400</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>20/12/2013</t>
+          <t>23/12/2013</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
@@ -3241,7 +3241,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960918&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972447&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Perforación de Pozos Hidrocarburíferos en Área Elk Oeste</t>
+          <t>Perforación de Pozos Hidrocarburíferos en Área Kloketen</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3275,11 +3275,11 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>25000</v>
+        <v>37500</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>18/12/2013</t>
+          <t>20/12/2013</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
@@ -3289,7 +3289,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128945020&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960918&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Perforación de Pozos Hidrocarburíferos en Área Yosi</t>
+          <t>Perforación de Pozos Hidrocarburíferos en Área Elk Oeste</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3323,11 +3323,11 @@
         </is>
       </c>
       <c r="F62" t="n">
-        <v>45000</v>
+        <v>25000</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>17/12/2013</t>
+          <t>18/12/2013</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
@@ -3337,7 +3337,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128930096&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128945020&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Extensión del Colector Arenal, Chañarcillo 37 - Central 4 Chañarcillo</t>
+          <t>Perforación de Pozos Hidrocarburíferos en Área Yosi</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3367,15 +3367,15 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Empresa Nacional del Petróleo - Magallanes</t>
+          <t>GeoPark TDF SpA</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>250</v>
+        <v>45000</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>06/12/2013</t>
+          <t>17/12/2013</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
@@ -3385,7 +3385,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128886746&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128930096&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Perforación de Pozos Hidrocarburíferos en Área Hámhmam Central Norte</t>
+          <t>Extensión del Colector Arenal, Chañarcillo 37 - Central 4 Chañarcillo</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3415,15 +3415,15 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>GeoPark TDF SpA</t>
+          <t>Empresa Nacional del Petróleo - Magallanes</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>15000</v>
+        <v>250</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>20/11/2013</t>
+          <t>06/12/2013</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
@@ -3433,7 +3433,7 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128835838&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128886746&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3448,7 +3448,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Desarrollo del pozo Tagua x-1</t>
+          <t>Perforación de Pozos Hidrocarburíferos en Área Hámhmam Central Norte</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3467,11 +3467,11 @@
         </is>
       </c>
       <c r="F65" t="n">
-        <v>605</v>
+        <v>15000</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>24/10/2013</t>
+          <t>20/11/2013</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
@@ -3481,7 +3481,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128719747&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128835838&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3496,7 +3496,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Perforación de Pozos Hidrocarburíferos en Área Kankoat</t>
+          <t>Desarrollo del pozo Tagua x-1</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3515,11 +3515,11 @@
         </is>
       </c>
       <c r="F66" t="n">
-        <v>30000</v>
+        <v>605</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>21/10/2013</t>
+          <t>24/10/2013</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
@@ -3529,7 +3529,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128704347&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128719747&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Implementación de un Sistema de Manejo de Vahos de la Planta Elaboradora de Nutrientes y Alimentos Funcionales</t>
+          <t>Perforación de Pozos Hidrocarburíferos en Área Kankoat</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3559,15 +3559,15 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>AQUAPROTEIN S. A.</t>
+          <t>GeoPark TDF SpA</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>979</v>
+        <v>30000</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>17/09/2013</t>
+          <t>21/10/2013</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
@@ -3577,7 +3577,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128581646&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128704347&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3592,7 +3592,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Construcción de Línea de Flujo para el Pozo Águila 1</t>
+          <t>Implementación de un Sistema de Manejo de Vahos de la Planta Elaboradora de Nutrientes y Alimentos Funcionales</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3607,15 +3607,15 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Empresa Nacional del Petróleo - Magallanes</t>
+          <t>AQUAPROTEIN S. A.</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>120</v>
+        <v>979</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>13/09/2013</t>
+          <t>17/09/2013</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
@@ -3625,7 +3625,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128513540&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128581646&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>GENÉRICA SUB-BLOQUES LYNCH B, CULLEN Y FORTUNA</t>
+          <t>Construcción de Línea de Flujo para el Pozo Águila 1</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3659,11 +3659,11 @@
         </is>
       </c>
       <c r="F69" t="n">
-        <v>18000</v>
+        <v>120</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>05/09/2013</t>
+          <t>13/09/2013</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
@@ -3673,7 +3673,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128537723&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128513540&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>CONSTRUCCIÓN DE LÍNEA DE FLUJO POZO CHERCÁN X-1</t>
+          <t>GENÉRICA SUB-BLOQUES LYNCH B, CULLEN Y FORTUNA</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3703,15 +3703,15 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>GeoPark TDF SpA</t>
+          <t>Empresa Nacional del Petróleo - Magallanes</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>370</v>
+        <v>18000</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>27/08/2013</t>
+          <t>05/09/2013</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
@@ -3721,7 +3721,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128505360&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128537723&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>GENÉRICA SUB-BLOQUES LYNCH B, CULLEN Y FORTUNA</t>
+          <t>CONSTRUCCIÓN DE LÍNEA DE FLUJO POZO CHERCÁN X-1</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3751,25 +3751,25 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Empresa Nacional del Petróleo - Magallanes</t>
+          <t>GeoPark TDF SpA</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>18000</v>
+        <v>370</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>26/07/2013</t>
+          <t>27/08/2013</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8379565&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128505360&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3784,7 +3784,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>PERFORACIÓN DE POZOS HIDROCARBURÍFEROS EN ÁREA ELK NORTE</t>
+          <t>GENÉRICA SUB-BLOQUES LYNCH B, CULLEN Y FORTUNA</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3799,25 +3799,25 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>GeoPark TDF SpA</t>
+          <t>Empresa Nacional del Petróleo - Magallanes</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>25000</v>
+        <v>18000</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>02/07/2013</t>
+          <t>26/07/2013</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8273568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8379565&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3832,7 +3832,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>PERFORACIÓN DE POZOS HIDROCARBURÍFEROS EN ÁREA HÁMHMAM CENTRAL SUR</t>
+          <t>PERFORACIÓN DE POZOS HIDROCARBURÍFEROS EN ÁREA ELK NORTE</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3851,11 +3851,11 @@
         </is>
       </c>
       <c r="F73" t="n">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>28/06/2013</t>
+          <t>02/07/2013</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
@@ -3865,7 +3865,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8293955&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8273568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3880,7 +3880,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>PERFORACIÓN DE POZOS HIDROCARBURÍFEROS EN ÁREA TEORATI</t>
+          <t>PERFORACIÓN DE POZOS HIDROCARBURÍFEROS EN ÁREA HÁMHMAM CENTRAL SUR</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3899,11 +3899,11 @@
         </is>
       </c>
       <c r="F74" t="n">
-        <v>25000</v>
+        <v>15000</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>21/06/2013</t>
+          <t>28/06/2013</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
@@ -3913,7 +3913,7 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8259721&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8293955&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>PERFORACIÓN DE POZOS HIDROCARBURÍFEROS EN ÁREA KENOS</t>
+          <t>PERFORACIÓN DE POZOS HIDROCARBURÍFEROS EN ÁREA TEORATI</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3947,11 +3947,11 @@
         </is>
       </c>
       <c r="F75" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>12/06/2013</t>
+          <t>21/06/2013</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
@@ -3961,7 +3961,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8240988&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8259721&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Desarrollo del pozo Omeling X-1</t>
+          <t>PERFORACIÓN DE POZOS HIDROCARBURÍFEROS EN ÁREA KENOS</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3995,7 +3995,7 @@
         </is>
       </c>
       <c r="F76" t="n">
-        <v>605</v>
+        <v>20000</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
@@ -4009,7 +4009,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8244993&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8240988&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Desarrollo del pozo Yakamush x-1</t>
+          <t>Desarrollo del pozo Omeling X-1</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4047,7 +4047,7 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>07/06/2013</t>
+          <t>12/06/2013</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
@@ -4057,7 +4057,7 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8224246&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8244993&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Desarrollo del pozo Chercán x-1</t>
+          <t>Desarrollo del pozo Yakamush x-1</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4095,7 +4095,7 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>28/05/2013</t>
+          <t>07/06/2013</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
@@ -4105,7 +4105,7 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8181617&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8224246&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4120,7 +4120,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Extracción de Áridos La Chimba</t>
+          <t>Desarrollo del pozo Chercán x-1</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4135,15 +4135,15 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>ServiAustral S.A.</t>
+          <t>GeoPark TDF SpA</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>440</v>
+        <v>605</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>26/10/2012</t>
+          <t>28/05/2013</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
@@ -4153,7 +4153,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7409316&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8181617&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4168,7 +4168,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Modificación del Trazado de la Línea de Flujo para el pozo Fortuna A</t>
+          <t>Extracción de Áridos La Chimba</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4183,15 +4183,15 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Empresa Nacional del Petróleo - Magallanes</t>
+          <t>ServiAustral S.A.</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>400</v>
+        <v>440</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>22/10/2012</t>
+          <t>26/10/2012</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
@@ -4201,7 +4201,7 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7449676&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7409316&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4216,7 +4216,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de RILES, Planta Pesquera Cabo Froward - Porvenir</t>
+          <t>Modificación del Trazado de la Línea de Flujo para el pozo Fortuna A</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4231,15 +4231,15 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Pesquera Cabo Froward Ltda.</t>
+          <t>Empresa Nacional del Petróleo - Magallanes</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>10</v>
+        <v>400</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>28/09/2012</t>
+          <t>22/10/2012</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
@@ -4249,7 +4249,7 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7301620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7449676&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4264,7 +4264,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>ACTIVIDADES DE PERFORACIÓN DE POZOS EN ÁREA SUR-ESTE BLOQUE CAUPOLICÁN, TIERRA DEL FUEGO.</t>
+          <t>Sistema de Tratamiento de RILES, Planta Pesquera Cabo Froward - Porvenir</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4279,15 +4279,15 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Empresa Nacional del Petróleo - Magallanes</t>
+          <t>Pesquera Cabo Froward Ltda.</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>90000</v>
+        <v>10</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>25/09/2012</t>
+          <t>28/09/2012</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
@@ -4297,7 +4297,7 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7203199&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7301620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>actividades de perforación de pozos en área sur Bloque Porvenir, Tierra del Fuego</t>
+          <t>ACTIVIDADES DE PERFORACIÓN DE POZOS EN ÁREA SUR-ESTE BLOQUE CAUPOLICÁN, TIERRA DEL FUEGO.</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4327,15 +4327,15 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>PETROMAGALLANES OPERACIONES LTDA.</t>
+          <t>Empresa Nacional del Petróleo - Magallanes</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>96000</v>
+        <v>90000</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>19/07/2012</t>
+          <t>25/09/2012</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
@@ -4345,7 +4345,7 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7129616&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7203199&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>ACTIVIDADES DE PERFORACION POZOS EN ÁREA SUR BLOQUE PORVENIR, TIERRA DEL FUEGO</t>
+          <t>actividades de perforación de pozos en área sur Bloque Porvenir, Tierra del Fuego</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4383,17 +4383,17 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>24/05/2012</t>
+          <t>19/07/2012</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6920705&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7129616&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -4408,7 +4408,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>ACTIVIDADES DE PERFORACION POZOS EN ÁREA POZO FUEGUINO, TIERRA DEL FUEGO"</t>
+          <t>ACTIVIDADES DE PERFORACION POZOS EN ÁREA SUR BLOQUE PORVENIR, TIERRA DEL FUEGO</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4423,7 +4423,7 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Empresa Nacional del Petróleo - Magallanes</t>
+          <t>PETROMAGALLANES OPERACIONES LTDA.</t>
         </is>
       </c>
       <c r="F85" t="n">
@@ -4431,17 +4431,17 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>20/12/2011</t>
+          <t>24/05/2012</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6192821&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6920705&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Construcción Línea de Flujo para Pozo Fortuna A</t>
+          <t>ACTIVIDADES DE PERFORACION POZOS EN ÁREA POZO FUEGUINO, TIERRA DEL FUEGO"</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4475,11 +4475,11 @@
         </is>
       </c>
       <c r="F86" t="n">
-        <v>400</v>
+        <v>96000</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>28/11/2011</t>
+          <t>20/12/2011</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
@@ -4489,7 +4489,7 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6313511&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6192821&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -4504,7 +4504,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>PLANTA DE TRATAMIENTO DE RILES POR MEDIO DEL SISTEMA BIDA DEL FRIGORIFICO TIERRA DEL FUEGO</t>
+          <t>Construcción Línea de Flujo para Pozo Fortuna A</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4519,25 +4519,25 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>CECINAS BAVARIA LTDA.</t>
+          <t>Empresa Nacional del Petróleo - Magallanes</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>18/10/2011</t>
+          <t>28/11/2011</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6065701&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6313511&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -4552,7 +4552,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Perforación de Pozo Exploración Fortuna A</t>
+          <t>PLANTA DE TRATAMIENTO DE RILES POR MEDIO DEL SISTEMA BIDA DEL FRIGORIFICO TIERRA DEL FUEGO</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4567,25 +4567,25 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Empresa Nacional del Petróleo - Magallanes</t>
+          <t>CECINAS BAVARIA LTDA.</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>3500</v>
+        <v>1000</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>11/04/2011</t>
+          <t>18/10/2011</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5516233&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6065701&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -4600,7 +4600,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Conservación Vía de Navegación Bahía Chilota, Porvenir</t>
+          <t>Perforación de Pozo Exploración Fortuna A</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4615,15 +4615,15 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Empresa Nacional del Petróleo - Magallanes</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>7375</v>
+        <v>3500</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>17/03/2011</t>
+          <t>11/04/2011</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
@@ -4633,7 +4633,7 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5420511&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5516233&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -4648,7 +4648,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de RILES, Planta Pesquera SERVI-POR Porvenir</t>
+          <t>Conservación Vía de Navegación Bahía Chilota, Porvenir</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4663,15 +4663,15 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Servicios Porvenir y Cía. Ltda.</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>10</v>
+        <v>7375</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>08/09/2010</t>
+          <t>17/03/2011</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
@@ -4681,7 +4681,7 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4860656&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5420511&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -4696,7 +4696,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Modificación Sistema de tratamiento RILes, Frigorífico Patagonia S.A. M.S.T. RILes, Frig. Patagonia (e-seia)</t>
+          <t>Sistema de Tratamiento de RILES, Planta Pesquera SERVI-POR Porvenir</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4711,15 +4711,15 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Frigorífico Patagonia S.A.</t>
+          <t>Servicios Porvenir y Cía. Ltda.</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>03/12/2009</t>
+          <t>08/09/2010</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
@@ -4729,7 +4729,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4231852&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4860656&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -4744,7 +4744,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Modificación Sistema de Tratamiento RILes, Frigorífico Patagonia S.A. Modificación SRT_Frigorífico Patagonia (e-seia)</t>
+          <t>Modificación Sistema de tratamiento RILes, Frigorífico Patagonia S.A. M.S.T. RILes, Frig. Patagonia (e-seia)</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4767,17 +4767,17 @@
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>24/11/2009</t>
+          <t>03/12/2009</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4202512&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4231852&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -4792,7 +4792,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Planta Elaboradora de Nutrientes y Alimentos Funcionales Planta Elab. de Nutrientes y Alimentos (e-seia)</t>
+          <t>Modificación Sistema de Tratamiento RILes, Frigorífico Patagonia S.A. Modificación SRT_Frigorífico Patagonia (e-seia)</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4807,25 +4807,25 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>AQUAPROTEIN S. A.</t>
+          <t>Frigorífico Patagonia S.A.</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>2204</v>
+        <v>0</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>17/11/2009</t>
+          <t>24/11/2009</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4183129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4202512&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -4840,7 +4840,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE MITILIDOS, COMERCIAL PORVENIR Y COMPAÑÍA LIMITADA (e-seia)</t>
+          <t>Planta Elaboradora de Nutrientes y Alimentos Funcionales Planta Elab. de Nutrientes y Alimentos (e-seia)</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4855,15 +4855,15 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Comercial Porvenir y CIA LTDA.</t>
+          <t>AQUAPROTEIN S. A.</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>628</v>
+        <v>2204</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>05/10/2009</t>
+          <t>17/11/2009</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
@@ -4873,7 +4873,7 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4071451&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4183129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -4888,7 +4888,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de Riles - Planta BIOTEX DOS S.A. (e-seia)</t>
+          <t>CENTRO DE CULTIVO DE MITILIDOS, COMERCIAL PORVENIR Y COMPAÑÍA LIMITADA (e-seia)</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4903,15 +4903,15 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>BIOTEX DOS S.A.</t>
+          <t>Comercial Porvenir y CIA LTDA.</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>100</v>
+        <v>628</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>29/07/2009</t>
+          <t>05/10/2009</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
@@ -4921,7 +4921,7 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3874415&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4071451&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -4936,7 +4936,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>POZOS EXPLORATORIOS LENGA-RUSSFIN, TIERRA DEL FUEGO (e-seia)</t>
+          <t>Sistema de Tratamiento de Riles - Planta BIOTEX DOS S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4951,15 +4951,15 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Apache Chile Energía SPA.</t>
+          <t>BIOTEX DOS S.A.</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>25000</v>
+        <v>100</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>17/07/2009</t>
+          <t>29/07/2009</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
@@ -4969,7 +4969,7 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3905716&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3874415&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -4984,7 +4984,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>INSTALACION DE CURTIEMBRE CRECELAN EN PORVENIR (e-seia)</t>
+          <t>POZOS EXPLORATORIOS LENGA-RUSSFIN, TIERRA DEL FUEGO (e-seia)</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4999,15 +4999,15 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Crecelan Limitada</t>
+          <t>Apache Chile Energía SPA.</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>1000</v>
+        <v>25000</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>08/04/2009</t>
+          <t>17/07/2009</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
@@ -5017,7 +5017,7 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3685945&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3905716&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5055,17 +5055,17 @@
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>02/04/2009</t>
+          <t>08/04/2009</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3669540&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3685945&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -5080,7 +5080,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Modificación Planta Nova Austral en Porvenir (e-seia)</t>
+          <t>INSTALACION DE CURTIEMBRE CRECELAN EN PORVENIR (e-seia)</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -5095,25 +5095,25 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Nova Austral S.A.</t>
+          <t>Crecelan Limitada</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>09/03/2009</t>
+          <t>02/04/2009</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3613468&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3669540&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5151,17 +5151,17 @@
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>11/02/2009</t>
+          <t>09/03/2009</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3537869&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3613468&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE MITÍLIDOS, COMERCIAL PORVENIR Y COMPAÑÍA LIMITADA Entre Cabo Boquerón y Caleta Esperanza, Bahía Inútil. (e-seia)</t>
+          <t>Modificación Planta Nova Austral en Porvenir (e-seia)</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5191,25 +5191,25 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Comercial Porvenir y CIA LTDA.</t>
+          <t>Nova Austral S.A.</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>628</v>
+        <v>1500</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>23/12/2008</t>
+          <t>11/02/2009</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3381147&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3537869&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5224,7 +5224,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE MITÍLIDOS, COMERCIAL PORVENIR Y COMPAÑÍA LIMITADAS. Suroeste Caleta Esperanza, Bahía Inútil (e-seia)</t>
+          <t>CENTRO DE CULTIVO DE MITÍLIDOS, COMERCIAL PORVENIR Y COMPAÑÍA LIMITADA Entre Cabo Boquerón y Caleta Esperanza, Bahía Inútil. (e-seia)</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5257,7 +5257,7 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3390632&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3381147&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -5272,7 +5272,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>"SISTEMA DE TRATAMIENTO DE RESIDUOS INDUSTRIALES LIQUIDOS PARA LA PLANTA PROCESADORA DE PRODUCTOS DEL MAR PESCA HIELOS AUSTRALES EN PORVENIR" (e-seia)</t>
+          <t>CENTRO DE CULTIVO DE MITÍLIDOS, COMERCIAL PORVENIR Y COMPAÑÍA LIMITADAS. Suroeste Caleta Esperanza, Bahía Inútil (e-seia)</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5287,15 +5287,15 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>PESCA HIELOS AUSTRALES Ltda.</t>
+          <t>Comercial Porvenir y CIA LTDA.</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>44</v>
+        <v>628</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>18/08/2008</t>
+          <t>23/12/2008</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
@@ -5305,7 +5305,7 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3115335&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3390632&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -5320,7 +5320,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>SISTEMA DE TRATAMIENTO DE RESIDUOS INDUSTRIALES LIQUIDOS PARA LA PLANTA PROCESADORA DE PRODUCTOS DEL MAR PESCA HIELOS AUSTRALES EN PORVENIR (e-seia)</t>
+          <t>"SISTEMA DE TRATAMIENTO DE RESIDUOS INDUSTRIALES LIQUIDOS PARA LA PLANTA PROCESADORA DE PRODUCTOS DEL MAR PESCA HIELOS AUSTRALES EN PORVENIR" (e-seia)</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5343,17 +5343,17 @@
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>31/07/2008</t>
+          <t>18/08/2008</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3032389&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3115335&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -5368,7 +5368,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Sistema de Matanza y Cosecha de Salmones in Situ Sistema de Matanza y Cosecha de Salmones in Situ (e-seia)</t>
+          <t>SISTEMA DE TRATAMIENTO DE RESIDUOS INDUSTRIALES LIQUIDOS PARA LA PLANTA PROCESADORA DE PRODUCTOS DEL MAR PESCA HIELOS AUSTRALES EN PORVENIR (e-seia)</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5378,20 +5378,20 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Duodécima</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Kuality Harvest SA</t>
+          <t>PESCA HIELOS AUSTRALES Ltda.</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>1200</v>
+        <v>44</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>29/07/2008</t>
+          <t>31/07/2008</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
@@ -5401,7 +5401,7 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2956347&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3032389&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -5416,7 +5416,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Tratamiento de Riles para Planta de Deshidratado y Elaboración de Extractos de Algas Marinas. Comuna de Porvenir. Región de Magallanes y Antártica Chilena (e-seia)</t>
+          <t>Sistema de Matanza y Cosecha de Salmones in Situ Sistema de Matanza y Cosecha de Salmones in Situ (e-seia)</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5426,30 +5426,30 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Duodécima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Marine Gel Antartic S.A</t>
+          <t>Kuality Harvest SA</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>650</v>
+        <v>1200</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>11/06/2008</t>
+          <t>29/07/2008</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2960632&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2956347&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -5464,7 +5464,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>PERFORACIÓN POZOS EXPLORATORIOS EN BLOQUE INTRACAMPOS (e-seia)</t>
+          <t>Tratamiento de Riles para Planta de Deshidratado y Elaboración de Extractos de Algas Marinas. Comuna de Porvenir. Región de Magallanes y Antártica Chilena (e-seia)</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5479,15 +5479,15 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Empresa Nacional del Petróleo - Magallanes</t>
+          <t>Marine Gel Antartic S.A</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>25200</v>
+        <v>650</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>11/03/2008</t>
+          <t>11/06/2008</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
@@ -5497,7 +5497,7 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2771131&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2960632&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -5512,7 +5512,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de RILES, Planta Elaboradora de Alimentos Porvenir (e-seia)</t>
+          <t>PERFORACIÓN POZOS EXPLORATORIOS EN BLOQUE INTRACAMPOS (e-seia)</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -5527,15 +5527,15 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>ELDAP S.A.</t>
+          <t>Empresa Nacional del Petróleo - Magallanes</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>77</v>
+        <v>25200</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>27/11/2007</t>
+          <t>11/03/2008</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
@@ -5545,7 +5545,7 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2519393&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2771131&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -5560,7 +5560,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de RILES, Frigorífico Patagonia (e-seia)</t>
+          <t>Sistema de Tratamiento de RILES, Planta Elaboradora de Alimentos Porvenir (e-seia)</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -5575,15 +5575,15 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Frigorífico Patagonia S.A.</t>
+          <t>ELDAP S.A.</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>25/10/2007</t>
+          <t>27/11/2007</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
@@ -5593,7 +5593,7 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2460959&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2519393&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -5608,7 +5608,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>SANEAMIENTO AMBIENTAL DE 606 FOSAS SECTOR ISLA Y CONTINENTE Saneamiento Ambiental de 606 Fosas (e-seia)</t>
+          <t>Sistema de Tratamiento de RILES, Frigorífico Patagonia (e-seia)</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5623,15 +5623,15 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Empresa Nacional del Petróleo - Magallanes</t>
+          <t>Frigorífico Patagonia S.A.</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>13000</v>
+        <v>100</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>24/09/2007</t>
+          <t>25/10/2007</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
@@ -5641,7 +5641,7 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2395647&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2460959&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -5656,7 +5656,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>SANEAMIENTO AMBIENTAL DE 606 FOSAS SECTOR ISLA Y CONTINENTE Saneamiento Ambiental de 606 Fosas (e-seia)</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5666,30 +5666,30 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Duodécima</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Empresa Nacional del Petróleo - Magallanes</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>300</v>
+        <v>13000</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>24/09/2007</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2395647&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -5704,7 +5704,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN PLAN REGIONAL DE DESARROLLO URBANO REGIÓN DE MAGALLANES Y LA ANTÁRTICA CHILENA (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5714,30 +5714,30 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Duodécima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo, Región de Magallanes y Antártica Chilena</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>25/06/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2214933&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -5752,7 +5752,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>PLan Cierre Vertedero Comuna de Porvenir. Plan de Cierre Vertedero de Porvenir (e-seia)</t>
+          <t>MODIFICACIÓN PLAN REGIONAL DE DESARROLLO URBANO REGIÓN DE MAGALLANES Y LA ANTÁRTICA CHILENA (e-seia)</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5767,15 +5767,15 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Porvenir</t>
+          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo, Región de Magallanes y Antártica Chilena</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>248</v>
+        <v>0</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>19/03/2007</t>
+          <t>25/06/2007</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
@@ -5785,7 +5785,7 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2007616&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2214933&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -5800,7 +5800,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>PLan Cierre Vertedero Comuna de Porvenir. Plan de Cierre Vertedero de Porvenir (e-seia)</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5810,30 +5810,30 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Duodécima</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Ilustre Municipalidad de Porvenir</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>200</v>
+        <v>248</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>19/03/2007</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2007616&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -5848,7 +5848,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Saneamiento Ambiental de 148 Fosas Tres Lagos-Flamenco Saneamiento Ambiental de 148 Fosas. (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5858,30 +5858,30 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Duodécima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Empresa Nacional del Petróleo - Magallanes</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>4500</v>
+        <v>200</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1899698&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -5944,7 +5944,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>SANEAMIENTO AMBIENTAL DE 72 FOSAS CULLEN B Saneamiento Ambiental de 72 Fosas Cullen B (e-seia)</t>
+          <t>Saneamiento Ambiental de 148 Fosas Tres Lagos-Flamenco Saneamiento Ambiental de 148 Fosas. (e-seia)</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5963,11 +5963,11 @@
         </is>
       </c>
       <c r="F117" t="n">
-        <v>0</v>
+        <v>4500</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>22/12/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
@@ -5977,7 +5977,7 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889800&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1899698&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -5992,7 +5992,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>DRAGADO ÁREAS DE MANIOBRAS MUELLE PESQUERO ARTESANAL BAHÍA CHILOTA, PORVENIR (e-seia)</t>
+          <t>SANEAMIENTO AMBIENTAL DE 72 FOSAS CULLEN B Saneamiento Ambiental de 72 Fosas Cullen B (e-seia)</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -6007,15 +6007,15 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Empresa Nacional del Petróleo - Magallanes</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>07/11/2006</t>
+          <t>22/12/2006</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
@@ -6025,7 +6025,7 @@
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1782713&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889800&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -6040,7 +6040,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de RILES, Frigorífico Patagonia, Porvenir (e-seia)</t>
+          <t>DRAGADO ÁREAS DE MANIOBRAS MUELLE PESQUERO ARTESANAL BAHÍA CHILOTA, PORVENIR (e-seia)</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -6055,15 +6055,15 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Frigorífico Patagonia S.A.</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>100</v>
+        <v>42</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>20/07/2006</t>
+          <t>07/11/2006</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
@@ -6073,7 +6073,7 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1563826&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1782713&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -6088,7 +6088,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Residuos Lìquidos Industriales "Inmobiliaria Majegui" (e-seia)</t>
+          <t>Sistema de Tratamiento de RILES, Frigorífico Patagonia, Porvenir (e-seia)</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -6103,15 +6103,15 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Inmobiliaria Majegui</t>
+          <t>Frigorífico Patagonia S.A.</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>61</v>
+        <v>100</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>17/07/2006</t>
+          <t>20/07/2006</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
@@ -6121,7 +6121,7 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1572155&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1563826&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -6136,7 +6136,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Residuos Industriales Lìquidos "Inmobiliaria Majegui" (e-seia)</t>
+          <t>Planta de Tratamiento de Residuos Lìquidos Industriales "Inmobiliaria Majegui" (e-seia)</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -6151,7 +6151,7 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Juan Carlos Apara Manzur</t>
+          <t>Inmobiliaria Majegui</t>
         </is>
       </c>
       <c r="F121" t="n">
@@ -6159,17 +6159,17 @@
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>04/07/2006</t>
+          <t>17/07/2006</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1498326&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1572155&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -6184,7 +6184,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Transporte de residuos industriales a plantas de disposicion final (e-seia)</t>
+          <t>Planta de Tratamiento de Residuos Industriales Lìquidos "Inmobiliaria Majegui" (e-seia)</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -6199,25 +6199,25 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>SERVIMER Servicios Integrados Limitada</t>
+          <t>Juan Carlos Apara Manzur</t>
         </is>
       </c>
       <c r="F122" t="n">
-        <v>150</v>
+        <v>61</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>29/06/2006</t>
+          <t>04/07/2006</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1522053&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1498326&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -6232,7 +6232,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales a Plantas de Disposición Final (e-seia)</t>
+          <t>Transporte de residuos industriales a plantas de disposicion final (e-seia)</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -6247,7 +6247,7 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Mario Mercier Opazo</t>
+          <t>SERVIMER Servicios Integrados Limitada</t>
         </is>
       </c>
       <c r="F123" t="n">
@@ -6255,17 +6255,17 @@
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>08/06/2006</t>
+          <t>29/06/2006</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1489961&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1522053&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -6280,7 +6280,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>Transporte de Residuos Industriales a Plantas de Disposición Final (e-seia)</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -6290,30 +6290,30 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Duodécima</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Mario Mercier Opazo</t>
         </is>
       </c>
       <c r="F124" t="n">
-        <v>4000</v>
+        <v>150</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>27/03/2006</t>
+          <t>08/06/2006</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1489961&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -6328,7 +6328,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6351,17 +6351,17 @@
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>06/03/2006</t>
+          <t>27/03/2006</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -6376,7 +6376,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Disposición final aguas servidas ciudad de Porvenir (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6386,30 +6386,30 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Duodécima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Aguas Magallanes S.A.</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>1180</v>
+        <v>4000</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>19/10/2005</t>
+          <t>06/03/2006</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1053948&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -6424,12 +6424,12 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Exploración Lago Mercedes XII Región Instalaciones de Producción</t>
+          <t>Disposición final aguas servidas ciudad de Porvenir (e-seia)</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -6439,15 +6439,15 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Empresa Nacional del Petróleo - Magallanes</t>
+          <t>Aguas Magallanes S.A.</t>
         </is>
       </c>
       <c r="F127" t="n">
-        <v>73200</v>
+        <v>1180</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>05/07/2005</t>
+          <t>19/10/2005</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
@@ -6457,7 +6457,7 @@
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=940740&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1053948&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -6472,7 +6472,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Centro de Manejo de Residuos Sólidos de Porvenir</t>
+          <t>Exploración Lago Mercedes XII Región Instalaciones de Producción</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -6487,15 +6487,15 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Porvenir</t>
+          <t>Empresa Nacional del Petróleo - Magallanes</t>
         </is>
       </c>
       <c r="F128" t="n">
-        <v>3000</v>
+        <v>73200</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>16/05/2005</t>
+          <t>05/07/2005</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
@@ -6505,7 +6505,7 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=862381&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=940740&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -6520,12 +6520,12 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Modificación a la DIA Diseño y Construcción Planta de Tratamiento de Aguas Servidas de la ciudad de Porvenir (e-seia)</t>
+          <t>Centro de Manejo de Residuos Sólidos de Porvenir</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -6535,25 +6535,25 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Aguas Magallanes S.A.</t>
+          <t>Ilustre Municipalidad de Porvenir</t>
         </is>
       </c>
       <c r="F129" t="n">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>04/05/2005</t>
+          <t>16/05/2005</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=661028&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=862381&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -6568,7 +6568,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Drenaje Superficial El Álamo - Tierra del Fuego (e-seia)</t>
+          <t>Modificación a la DIA Diseño y Construcción Planta de Tratamiento de Aguas Servidas de la ciudad de Porvenir (e-seia)</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -6583,25 +6583,25 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Comunidad Agrícola Fajardo</t>
+          <t>Aguas Magallanes S.A.</t>
         </is>
       </c>
       <c r="F130" t="n">
-        <v>220</v>
+        <v>0</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>07/12/2004</t>
+          <t>04/05/2005</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=532546&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=661028&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -6616,7 +6616,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>PROYECTO PARA LA EXTRACCION, PRODUCCION Y COMERCIALIZACION DE GUANO ROJO DE COVADERAS DE LA XII REGION DE MAGALLANES Y LA ANTARTICA CHILENA CHILE (e-seia)</t>
+          <t>Drenaje Superficial El Álamo - Tierra del Fuego (e-seia)</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -6631,15 +6631,15 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Gabriel Patiño Kaufer</t>
+          <t>Comunidad Agrícola Fajardo</t>
         </is>
       </c>
       <c r="F131" t="n">
-        <v>16000</v>
+        <v>220</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>15/11/2004</t>
+          <t>07/12/2004</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
@@ -6649,7 +6649,7 @@
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=508754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=532546&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -6664,7 +6664,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>PROYECTO PARA LA EXTRACCION, PRODUCCION Y COMERCIALIZACION DE GUANO ROJO DE COVADERAS DE LA XII REGION DE MAGALLANES Y LA ANTARTICA CHILENA -CHILE (e-seia)</t>
+          <t>PROYECTO PARA LA EXTRACCION, PRODUCCION Y COMERCIALIZACION DE GUANO ROJO DE COVADERAS DE LA XII REGION DE MAGALLANES Y LA ANTARTICA CHILENA CHILE (e-seia)</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6687,17 +6687,17 @@
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>16/06/2004</t>
+          <t>15/11/2004</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=377223&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=508754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -6712,7 +6712,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Transporte de Plaguicidas y Artefactos Contaminados o que Contienen Bifenilospoliclorados (PCB) (e-seia)</t>
+          <t>PROYECTO PARA LA EXTRACCION, PRODUCCION Y COMERCIALIZACION DE GUANO ROJO DE COVADERAS DE LA XII REGION DE MAGALLANES Y LA ANTARTICA CHILENA -CHILE (e-seia)</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6722,20 +6722,20 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Duodécima</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>Gabriel Patiño Kaufer</t>
         </is>
       </c>
       <c r="F133" t="n">
-        <v>200</v>
+        <v>16000</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>30/04/2004</t>
+          <t>16/06/2004</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
@@ -6745,7 +6745,7 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=339300&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=377223&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -6760,7 +6760,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Planta de Deshidratado y Elaboración de Extractos de Algas Marinas en Porvenir, XII Región (e-seia)</t>
+          <t>Transporte de Plaguicidas y Artefactos Contaminados o que Contienen Bifenilospoliclorados (PCB) (e-seia)</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6770,30 +6770,30 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Duodécima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Marine Gel Antartic S.A</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>3000</v>
+        <v>200</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>22/01/2004</t>
+          <t>30/04/2004</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=254765&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=339300&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -6808,7 +6808,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Planta procesadora de Turba (Musgo sphagnum) en Porvenir (e-seia)</t>
+          <t>Planta de Deshidratado y Elaboración de Extractos de Algas Marinas en Porvenir, XII Región (e-seia)</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6823,25 +6823,25 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>TURBA TIERRA DEL FUEGO CHILE S.A.</t>
+          <t>Marine Gel Antartic S.A</t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>600</v>
+        <v>3000</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>30/10/2003</t>
+          <t>22/01/2004</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=186300&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=254765&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -6856,7 +6856,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Colada Continua Ascendente (e-seia)</t>
+          <t>Planta procesadora de Turba (Musgo sphagnum) en Porvenir (e-seia)</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6871,25 +6871,25 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>COLCAUSA S.A.</t>
+          <t>TURBA TIERRA DEL FUEGO CHILE S.A.</t>
         </is>
       </c>
       <c r="F136" t="n">
-        <v>2269</v>
+        <v>600</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>22/08/2003</t>
+          <t>30/10/2003</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=133073&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=186300&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -6904,7 +6904,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Piscicultura Los Colorines (e-seia)</t>
+          <t>Colada Continua Ascendente (e-seia)</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6919,15 +6919,15 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Nova Austral S.A.</t>
+          <t>COLCAUSA S.A.</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>1500</v>
+        <v>2269</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>20/08/2003</t>
+          <t>22/08/2003</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
@@ -6937,7 +6937,7 @@
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=126605&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=133073&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -6952,7 +6952,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano Región de Magallanes y Antártica Chilena (e-seia)</t>
+          <t>Piscicultura Los Colorines (e-seia)</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6967,11 +6967,11 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial XIIª Región - Ministerio de Vivienda y Urbanismo</t>
+          <t>Nova Austral S.A.</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
@@ -6985,7 +6985,7 @@
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=131263&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=126605&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -7000,7 +7000,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Conservación Dragado Canal de Acceso Bahía Chilota (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano Región de Magallanes y Antártica Chilena (e-seia)</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -7015,15 +7015,15 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Secretaría Regional Ministerial XIIª Región - Ministerio de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F139" t="n">
-        <v>203</v>
+        <v>0</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>27/01/2003</t>
+          <t>20/08/2003</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
@@ -7033,7 +7033,7 @@
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=45181&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=131263&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -7048,7 +7048,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Exploración Cordón Baquedano</t>
+          <t>Conservación Dragado Canal de Acceso Bahía Chilota (e-seia)</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -7063,15 +7063,15 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Minera Los Caiquenes Ltda.</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F140" t="n">
-        <v>250</v>
+        <v>203</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>11/12/2002</t>
+          <t>27/01/2003</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
@@ -7081,7 +7081,7 @@
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6108&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=45181&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -7096,7 +7096,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Fábrica de Conductores Eléctricos</t>
+          <t>Exploración Cordón Baquedano</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -7111,15 +7111,15 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Inversiones F y L S.A.</t>
+          <t>Minera Los Caiquenes Ltda.</t>
         </is>
       </c>
       <c r="F141" t="n">
-        <v>4450</v>
+        <v>250</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>09/10/2002</t>
+          <t>11/12/2002</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
@@ -7129,7 +7129,7 @@
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5884&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6108&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -7144,7 +7144,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Planta para Procesamientos de Productos del Mar Seco - Salados Belocean</t>
+          <t>Fábrica de Conductores Eléctricos</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -7159,15 +7159,15 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>International Seafood S.A</t>
+          <t>Inversiones F y L S.A.</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>0</v>
+        <v>4450</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>12/08/2002</t>
+          <t>09/10/2002</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
@@ -7177,7 +7177,7 @@
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5702&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5884&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -7192,7 +7192,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Complejo Agroturístico Estancia San Jorge</t>
+          <t>Planta para Procesamientos de Productos del Mar Seco - Salados Belocean</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -7207,15 +7207,15 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Mladen Tadic Seric</t>
+          <t>International Seafood S.A</t>
         </is>
       </c>
       <c r="F143" t="n">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>19/03/2002</t>
+          <t>12/08/2002</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
@@ -7225,7 +7225,7 @@
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5277&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5702&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -7240,7 +7240,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Planta de Curtiembre para Cueros</t>
+          <t>Complejo Agroturístico Estancia San Jorge</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -7255,25 +7255,25 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Comercial Curtypel Ltda.</t>
+          <t>Mladen Tadic Seric</t>
         </is>
       </c>
       <c r="F144" t="n">
-        <v>2700</v>
+        <v>130</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>14/01/2002</t>
+          <t>19/03/2002</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4997&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5277&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -7288,7 +7288,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Ampliación Planta Nova Austral en Porvenir e Incorporación de Nuevas Líneas de Proceso</t>
+          <t>Planta de Curtiembre para Cueros</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -7303,25 +7303,25 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Nova Austral S.A.</t>
+          <t>Comercial Curtypel Ltda.</t>
         </is>
       </c>
       <c r="F145" t="n">
-        <v>1500</v>
+        <v>2700</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>21/12/2001</t>
+          <t>14/01/2002</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4910&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4997&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -7336,7 +7336,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de Residuos Industriales Planta Faenadora de Carnes</t>
+          <t>Ampliación Planta Nova Austral en Porvenir e Incorporación de Nuevas Líneas de Proceso</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -7351,15 +7351,15 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>Sociedad Agrícola Sacor Ltda.</t>
+          <t>Nova Austral S.A.</t>
         </is>
       </c>
       <c r="F146" t="n">
-        <v>120</v>
+        <v>1500</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>16/10/2001</t>
+          <t>21/12/2001</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
@@ -7369,7 +7369,7 @@
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4501&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4910&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -7384,7 +7384,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Cabo Boquerón (200121018) Río Concordia (200121017) Bahía Inútil Isla Tierra del Fuego</t>
+          <t>Sistema de Tratamiento de Residuos Industriales Planta Faenadora de Carnes</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -7399,25 +7399,25 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Salmones Glaciar de los Andes S.A.</t>
+          <t>Sociedad Agrícola Sacor Ltda.</t>
         </is>
       </c>
       <c r="F147" t="n">
-        <v>2000</v>
+        <v>120</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>03/10/2001</t>
+          <t>16/10/2001</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4410&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4501&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -7432,7 +7432,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales</t>
+          <t>Centro de Engorda de Salmonídeos Cabo Boquerón (200121018) Río Concordia (200121017) Bahía Inútil Isla Tierra del Fuego</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -7442,30 +7442,30 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Duodécima</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>ECOSUR S.A.</t>
+          <t>Salmones Glaciar de los Andes S.A.</t>
         </is>
       </c>
       <c r="F148" t="n">
-        <v>200</v>
+        <v>2000</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>25/09/2001</t>
+          <t>03/10/2001</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4410&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -7480,7 +7480,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Nuevas Líneas de Proceso Planta Nova Austral Porvenir</t>
+          <t>Transporte de Residuos Industriales</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -7490,30 +7490,30 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Duodécima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>Nova Austral S.A.</t>
+          <t>ECOSUR S.A.</t>
         </is>
       </c>
       <c r="F149" t="n">
-        <v>1500</v>
+        <v>200</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>29/05/2001</t>
+          <t>25/09/2001</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3932&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -7528,7 +7528,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Construcción y Habilitación de Elaboradora y Procesadora de Productos del Mar BELOCEAN</t>
+          <t>Nuevas Líneas de Proceso Planta Nova Austral Porvenir</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -7543,15 +7543,15 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>International Seafood S.A</t>
+          <t>Nova Austral S.A.</t>
         </is>
       </c>
       <c r="F150" t="n">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>18/05/2001</t>
+          <t>29/05/2001</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
@@ -7561,7 +7561,7 @@
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3904&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3932&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -7576,7 +7576,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Actualización Plan Regulador Comuna de Porvenir</t>
+          <t>Construcción y Habilitación de Elaboradora y Procesadora de Productos del Mar BELOCEAN</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -7591,15 +7591,15 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Porvenir</t>
+          <t>International Seafood S.A</t>
         </is>
       </c>
       <c r="F151" t="n">
-        <v>0</v>
+        <v>1300</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>19/04/2001</t>
+          <t>18/05/2001</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
@@ -7609,7 +7609,7 @@
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3809&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3904&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -7624,7 +7624,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Diseño y Construcción Planta de Tratamiento de Aguas Servidas de la Ciudad de Porvenir</t>
+          <t>Actualización Plan Regulador Comuna de Porvenir</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -7639,15 +7639,15 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>Aguas Magallanes S.A.</t>
+          <t>Ilustre Municipalidad de Porvenir</t>
         </is>
       </c>
       <c r="F152" t="n">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>12/04/2001</t>
+          <t>19/04/2001</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
@@ -7657,7 +7657,7 @@
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3812&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3809&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -7672,7 +7672,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Planta Procesadora de Productos Hidrobiológicos Pesquera Bakkavor Chile Porvenir</t>
+          <t>Diseño y Construcción Planta de Tratamiento de Aguas Servidas de la Ciudad de Porvenir</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -7687,15 +7687,15 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>Bakkavor Chile S.A.</t>
+          <t>Aguas Magallanes S.A.</t>
         </is>
       </c>
       <c r="F153" t="n">
-        <v>200</v>
+        <v>1500</v>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>05/04/2001</t>
+          <t>12/04/2001</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
@@ -7705,7 +7705,7 @@
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3812&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -7720,7 +7720,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Planta de Curtiembre para Cueros de Ovinos</t>
+          <t>Planta Procesadora de Productos Hidrobiológicos Pesquera Bakkavor Chile Porvenir</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -7735,25 +7735,25 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>Comercial Curtypel Ltda.</t>
+          <t>Bakkavor Chile S.A.</t>
         </is>
       </c>
       <c r="F154" t="n">
-        <v>4200</v>
+        <v>200</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>06/12/2000</t>
+          <t>05/04/2001</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3422&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -7768,7 +7768,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Planta de Reproceso de Bacalao</t>
+          <t>Planta de Curtiembre para Cueros de Ovinos</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -7783,25 +7783,25 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>Nova Austral S.A.</t>
+          <t>Comercial Curtypel Ltda.</t>
         </is>
       </c>
       <c r="F155" t="n">
-        <v>1500</v>
+        <v>4200</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>29/08/2000</t>
+          <t>06/12/2000</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3159&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3422&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -7816,7 +7816,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Construcción y Habilitación de Planta Pesquera - Importadora y Exportadora Océano Atlántico Ltda.</t>
+          <t>Planta de Reproceso de Bacalao</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -7831,15 +7831,15 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>Importadora y Exportadora Océano Atlántico Ltda.</t>
+          <t>Nova Austral S.A.</t>
         </is>
       </c>
       <c r="F156" t="n">
-        <v>400</v>
+        <v>1500</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>26/05/2000</t>
+          <t>29/08/2000</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
@@ -7849,7 +7849,7 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2906&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3159&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -7864,7 +7864,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Transporte de Artefactos y/o Materiales Contaminados o que contienen Bifenilospoliclorados (BPC) o Terfenilospoliclorados</t>
+          <t>Construcción y Habilitación de Planta Pesquera - Importadora y Exportadora Océano Atlántico Ltda.</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -7874,20 +7874,20 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Duodécima</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>Compañía de Desarrollo Minero Industrial CHIHOL Ltda.</t>
+          <t>Importadora y Exportadora Océano Atlántico Ltda.</t>
         </is>
       </c>
       <c r="F157" t="n">
-        <v>110</v>
+        <v>400</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>14/02/2000</t>
+          <t>26/05/2000</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
@@ -7897,7 +7897,7 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2686&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2906&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -7912,7 +7912,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Perforación de Pozos de Exploración y Explotación de Hidrocarburos en Tierra</t>
+          <t>Transporte de Artefactos y/o Materiales Contaminados o que contienen Bifenilospoliclorados (BPC) o Terfenilospoliclorados</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -7922,20 +7922,20 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Duodécima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>Empresa Nacional del Petróleo - Magallanes</t>
+          <t>Compañía de Desarrollo Minero Industrial CHIHOL Ltda.</t>
         </is>
       </c>
       <c r="F158" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>19/07/1999</t>
+          <t>14/02/2000</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
@@ -7945,7 +7945,7 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2082&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2686&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -7960,7 +7960,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Habilitación e Implementación Planta Pesquera Artesanal en Porvenir</t>
+          <t>Perforación de Pozos de Exploración y Explotación de Hidrocarburos en Tierra</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -7975,15 +7975,15 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Sociedad Pesquera Clarencia Limitada</t>
+          <t>Empresa Nacional del Petróleo - Magallanes</t>
         </is>
       </c>
       <c r="F159" t="n">
-        <v>8000</v>
+        <v>0</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>24/11/1998</t>
+          <t>19/07/1999</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
@@ -7993,7 +7993,7 @@
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1474&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2082&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -8008,7 +8008,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Planta Procesadora Recursos del Mar - Bahía Chilota</t>
+          <t>Habilitación e Implementación Planta Pesquera Artesanal en Porvenir</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -8023,15 +8023,15 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>Sociedad Pesquera Bahía Chilota</t>
+          <t>Sociedad Pesquera Clarencia Limitada</t>
         </is>
       </c>
       <c r="F160" t="n">
-        <v>340</v>
+        <v>8000</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>20/11/1997</t>
+          <t>24/11/1998</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
@@ -8041,7 +8041,7 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=337&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1474&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -8056,43 +8056,91 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
+          <t>Planta Procesadora Recursos del Mar - Bahía Chilota</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>Duodécima</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>Sociedad Pesquera Bahía Chilota</t>
+        </is>
+      </c>
+      <c r="F161" t="n">
+        <v>340</v>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>20/11/1997</t>
+        </is>
+      </c>
+      <c r="H161" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I161" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=337&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J161" t="inlineStr">
+        <is>
+          <t>Porvenir</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>161</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
           <t>Complejo Industrial Bahía Gente Grande</t>
         </is>
       </c>
-      <c r="C161" t="inlineStr">
+      <c r="C162" t="inlineStr">
         <is>
           <t>EIA</t>
         </is>
       </c>
-      <c r="D161" t="inlineStr">
-        <is>
-          <t>Duodécima</t>
-        </is>
-      </c>
-      <c r="E161" t="inlineStr">
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>Duodécima</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
         <is>
           <t>Forestal Trillium Ltda.</t>
         </is>
       </c>
-      <c r="F161" t="n">
+      <c r="F162" t="n">
         <v>95000</v>
       </c>
-      <c r="G161" t="inlineStr">
+      <c r="G162" t="inlineStr">
         <is>
           <t>27/03/1996</t>
         </is>
       </c>
-      <c r="H161" t="inlineStr">
+      <c r="H162" t="inlineStr">
         <is>
           <t>Desistido</t>
         </is>
       </c>
-      <c r="I161" t="inlineStr">
+      <c r="I162" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1450&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J161" t="inlineStr">
+      <c r="J162" t="inlineStr">
         <is>
           <t>Porvenir</t>
         </is>

--- a/data/Porvenir.xlsx
+++ b/data/Porvenir.xlsx
@@ -5896,7 +5896,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Saneamiento Ambiental de 148 Fosas Tres Lagos-Flamenco Saneamiento Ambiental de 148 Fosas. (e-seia)</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5906,16 +5906,16 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Duodécima</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Empresa Nacional del Petróleo - Magallanes</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>200</v>
+        <v>4500</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
@@ -5924,12 +5924,12 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1899698&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -5944,7 +5944,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Saneamiento Ambiental de 148 Fosas Tres Lagos-Flamenco Saneamiento Ambiental de 148 Fosas. (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5954,16 +5954,16 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Duodécima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Empresa Nacional del Petróleo - Magallanes</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>4500</v>
+        <v>200</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
@@ -5972,12 +5972,12 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1899698&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">

--- a/data/Porvenir.xlsx
+++ b/data/Porvenir.xlsx
@@ -452,7 +452,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Porvenir.xlsx
+++ b/data/Porvenir.xlsx
@@ -5896,7 +5896,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Saneamiento Ambiental de 148 Fosas Tres Lagos-Flamenco Saneamiento Ambiental de 148 Fosas. (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5906,16 +5906,16 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Duodécima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Empresa Nacional del Petróleo - Magallanes</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>4500</v>
+        <v>200</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
@@ -5924,12 +5924,12 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1899698&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -5944,7 +5944,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Saneamiento Ambiental de 148 Fosas Tres Lagos-Flamenco Saneamiento Ambiental de 148 Fosas. (e-seia)</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5954,16 +5954,16 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Duodécima</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Empresa Nacional del Petróleo - Magallanes</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>200</v>
+        <v>4500</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
@@ -5972,12 +5972,12 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1899698&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">

--- a/data/Porvenir.xlsx
+++ b/data/Porvenir.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J162"/>
+  <dimension ref="A1:J163"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,17 +447,17 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>18/07/2022</t>
+          <t>11/08/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Ingresados Art.94 RSEIA</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156472061&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156651273&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Saneamiento de Fosas de Hidrocarburos en Sector Isla y Continente</t>
+          <t>Centro de Gestión de Residuos Sólidos Tierra del Fuego</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -487,25 +487,25 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Empresa Nacional del Petróleo - Magallanes</t>
+          <t>Gobierno Regional de Magallanes y Antártica Chilena</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>50000</v>
+        <v>21780</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>18/02/2021</t>
+          <t>18/07/2022</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2149760633&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156472061&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -543,17 +543,17 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>18/01/2021</t>
+          <t>18/02/2021</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2149740983&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2149760633&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,7 +568,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ampliación Capacidad de Producción Planta Nova Austral en Porvenir</t>
+          <t>Saneamiento de Fosas de Hidrocarburos en Sector Isla y Continente</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,25 +583,25 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Nova Austral S.A.</t>
+          <t>Empresa Nacional del Petróleo - Magallanes</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>350</v>
+        <v>50000</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>21/04/2020</t>
+          <t>18/01/2021</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146333673&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2149740983&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Línea de Flujo Carpintero X-1 a Estación de Transferencia de Flujo Cisne Sur</t>
+          <t>Ampliación Capacidad de Producción Planta Nova Austral en Porvenir</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -631,15 +631,15 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>YPF Chile S.A.</t>
+          <t>Nova Austral S.A.</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>290</v>
+        <v>350</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>19/02/2020</t>
+          <t>21/04/2020</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -649,7 +649,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145665823&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146333673&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Desarrollo del pozo Leún x-1</t>
+          <t>Línea de Flujo Carpintero X-1 a Estación de Transferencia de Flujo Cisne Sur</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -679,15 +679,15 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>GeoPark TDF SpA</t>
+          <t>YPF Chile S.A.</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1760</v>
+        <v>290</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>26/12/2019</t>
+          <t>19/02/2020</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -697,7 +697,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145284222&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145665823&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -735,17 +735,17 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>19/12/2019</t>
+          <t>26/12/2019</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145254872&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145284222&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Línea de Flujo Carpintero X-1 a Estación de Transferencia de Flujo Cisne Sur</t>
+          <t>Desarrollo del pozo Leún x-1</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -775,25 +775,25 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>YPF Chile S.A.</t>
+          <t>GeoPark TDF SpA</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>290</v>
+        <v>1760</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>18/11/2019</t>
+          <t>19/12/2019</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144976010&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145254872&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Línea de Flujo Carpintero X-1 Cisne Sur X-1</t>
+          <t>Línea de Flujo Carpintero X-1 a Estación de Transferencia de Flujo Cisne Sur</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -831,17 +831,17 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>28/10/2019</t>
+          <t>18/11/2019</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144524024&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144976010&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Estación de Transferencia de Flujo Cisne Sur</t>
+          <t>Línea de Flujo Carpintero X-1 Cisne Sur X-1</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -875,21 +875,21 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>27096</v>
+        <v>290</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>16/08/2019</t>
+          <t>28/10/2019</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144004376&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144524024&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -927,17 +927,17 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>13/08/2019</t>
+          <t>16/08/2019</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143918660&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144004376&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>GENÉRICA SUB-BLOQUES ARENAL NORTE Y SUR</t>
+          <t>Estación de Transferencia de Flujo Cisne Sur</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -967,25 +967,25 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Empresa Nacional del Petróleo - Magallanes</t>
+          <t>YPF Chile S.A.</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>213000</v>
+        <v>27096</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>05/08/2019</t>
+          <t>13/08/2019</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143851908&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143918660&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>EXTRACCIÓN Y PROCESAMIENTO DE ÁRIDOS SANTA GEMITA</t>
+          <t>GENÉRICA SUB-BLOQUES ARENAL NORTE Y SUR</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1015,25 +1015,25 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Constructora Vilicic S.A</t>
+          <t>Empresa Nacional del Petróleo - Magallanes</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>600</v>
+        <v>213000</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>06/02/2019</t>
+          <t>05/08/2019</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142430234&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143851908&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Modificación RCA 120/2010 Ampliación Productiva Planta Aquaprotein S.A.</t>
+          <t>EXTRACCIÓN Y PROCESAMIENTO DE ÁRIDOS SANTA GEMITA</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1063,15 +1063,15 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>AQUAPROTEIN S. A.</t>
+          <t>Constructora Vilicic S.A</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>14000</v>
+        <v>600</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>24/05/2018</t>
+          <t>06/02/2019</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1081,7 +1081,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2139198134&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142430234&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1119,17 +1119,17 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>25/04/2018</t>
+          <t>24/05/2018</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138993038&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2139198134&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Extracción de Áridos Aurora</t>
+          <t>Modificación RCA 120/2010 Ampliación Productiva Planta Aquaprotein S.A.</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1159,25 +1159,25 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Constructora Vilicic S.A</t>
+          <t>AQUAPROTEIN S. A.</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>200</v>
+        <v>14000</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>04/04/2018</t>
+          <t>25/04/2018</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138836687&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138993038&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Modificación RCA 120/2010 Ampliación Productiva Planta Aquaprotein S.A.</t>
+          <t>Extracción de Áridos Aurora</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1207,25 +1207,25 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>AQUAPROTEIN S. A.</t>
+          <t>Constructora Vilicic S.A</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>14000</v>
+        <v>200</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>28/02/2018</t>
+          <t>04/04/2018</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138577022&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138836687&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Extracción de Áridos Cuevas</t>
+          <t>Modificación RCA 120/2010 Ampliación Productiva Planta Aquaprotein S.A.</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1255,25 +1255,25 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Constructora Vilicic S.A</t>
+          <t>AQUAPROTEIN S. A.</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>220</v>
+        <v>14000</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>13/12/2017</t>
+          <t>28/02/2018</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2137941964&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138577022&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>GENÉRICA SUB-BLOQUES ARENAL</t>
+          <t>Extracción de Áridos Cuevas</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1303,11 +1303,11 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Empresa Nacional del Petróleo - Magallanes</t>
+          <t>Constructora Vilicic S.A</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>186000</v>
+        <v>220</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1321,7 +1321,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2136001974&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2137941964&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Extracción de Aridos García</t>
+          <t>GENÉRICA SUB-BLOQUES ARENAL</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1351,15 +1351,15 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Constructora Vilicic S.A</t>
+          <t>Empresa Nacional del Petróleo - Magallanes</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>200</v>
+        <v>186000</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>09/08/2017</t>
+          <t>13/12/2017</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1369,7 +1369,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132624055&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2136001974&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de RILes y Modificación Sistema Tratamiento de Vahos, Aquaprotein S.A.</t>
+          <t>Extracción de Aridos García</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1399,15 +1399,15 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>AQUAPROTEIN S. A.</t>
+          <t>Constructora Vilicic S.A</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1785</v>
+        <v>200</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>17/03/2017</t>
+          <t>09/08/2017</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -1417,7 +1417,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132259859&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132624055&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Ampliación Planta y Modificación Sistema Tratamiento de Vahos, Aquaprotein S.A.</t>
+          <t>Planta de Tratamiento de RILes y Modificación Sistema Tratamiento de Vahos, Aquaprotein S.A.</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1451,21 +1451,21 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1050</v>
+        <v>1785</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>22/02/2017</t>
+          <t>17/03/2017</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132201836&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132259859&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Planta Faenadora y Procesadora de Carnes Tierra del Fuego Limitada</t>
+          <t>Ampliación Planta y Modificación Sistema Tratamiento de Vahos, Aquaprotein S.A.</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1495,25 +1495,25 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Faenadora y Procesadora de Carnes Tierra del Fuego Limitada</t>
+          <t>AQUAPROTEIN S. A.</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1750</v>
+        <v>1050</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>18/01/2017</t>
+          <t>22/02/2017</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132089027&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132201836&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Fractura hidráulica y construcción de línea de flujo pozo Chercán Oeste x-1</t>
+          <t>Planta Faenadora y Procesadora de Carnes Tierra del Fuego Limitada</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1543,11 +1543,11 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>GeoPark TDF SpA</t>
+          <t>Faenadora y Procesadora de Carnes Tierra del Fuego Limitada</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1620</v>
+        <v>1750</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -1561,7 +1561,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132008670&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132089027&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>GENÉRICA SUB-BLOQUES ARENAL</t>
+          <t>Fractura hidráulica y construcción de línea de flujo pozo Chercán Oeste x-1</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1591,25 +1591,25 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Empresa Nacional del Petróleo - Magallanes</t>
+          <t>GeoPark TDF SpA</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>42000</v>
+        <v>1620</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>03/01/2017</t>
+          <t>18/01/2017</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132033725&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132008670&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Piscicultura de Recirculacion Tierra del Fuego</t>
+          <t>GENÉRICA SUB-BLOQUES ARENAL</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1639,25 +1639,25 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Piscicultura Tierra del Fuego S.A</t>
+          <t>Empresa Nacional del Petróleo - Magallanes</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>32000</v>
+        <v>42000</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>18/11/2016</t>
+          <t>03/01/2017</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131940597&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132033725&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Estimulación hidráulica pozo Tenca x-1 y habilitación de pozos sumideros Chilco x-1 y Kaum x-1</t>
+          <t>Piscicultura de Recirculacion Tierra del Fuego</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1687,15 +1687,15 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>GeoPark TDF SpA</t>
+          <t>Piscicultura Tierra del Fuego S.A</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1240</v>
+        <v>32000</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>09/08/2016</t>
+          <t>18/11/2016</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -1705,7 +1705,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131658290&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131940597&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Planta Faenadora y Procesadora de Carnes Tierra del Fuego Limitada</t>
+          <t>Estimulación hidráulica pozo Tenca x-1 y habilitación de pozos sumideros Chilco x-1 y Kaum x-1</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1735,25 +1735,25 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Faenadora y Procesadora de Carnes Tierra del Fuego Limitada</t>
+          <t>GeoPark TDF SpA</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1727</v>
+        <v>1240</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>18/07/2016</t>
+          <t>09/08/2016</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131608949&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131658290&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1791,17 +1791,17 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>17/06/2016</t>
+          <t>18/07/2016</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131455209&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131608949&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Fracturación Hidráulica en 21 Pozos de Hidrocarburos, Isla Tierra del Fuego</t>
+          <t>Planta Faenadora y Procesadora de Carnes Tierra del Fuego Limitada</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1831,25 +1831,25 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Empresa Nacional del Petróleo - Magallanes</t>
+          <t>Faenadora y Procesadora de Carnes Tierra del Fuego Limitada</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>21000</v>
+        <v>1727</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>22/09/2015</t>
+          <t>17/06/2016</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130744373&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131455209&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>GENÉRICA 4 SUB-BLOQUES DE ARENAL</t>
+          <t>Fracturación Hidráulica en 21 Pozos de Hidrocarburos, Isla Tierra del Fuego</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1883,11 +1883,11 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>204000</v>
+        <v>21000</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>02/09/2015</t>
+          <t>22/09/2015</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -1897,7 +1897,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130741119&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130744373&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Líneas de Flujo a Baterías Golondrina, Chañarcillo Sur, Planta Sara, Flamenco y Gaviota Norte en Isla Tierra del Fuego</t>
+          <t>GENÉRICA 4 SUB-BLOQUES DE ARENAL</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1931,11 +1931,11 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1600</v>
+        <v>204000</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>18/06/2015</t>
+          <t>02/09/2015</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -1945,7 +1945,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130565487&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130741119&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1983,17 +1983,17 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>18/05/2015</t>
+          <t>18/06/2015</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130478412&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130565487&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>REINYECCIÓN DE FLUIDOS PRODUCTO DE LA EXTRACCIÓN DE HIDROCARBUROS EN 10 POZOS EXISTENTES EN ISLA</t>
+          <t>Líneas de Flujo a Baterías Golondrina, Chañarcillo Sur, Planta Sara, Flamenco y Gaviota Norte en Isla Tierra del Fuego</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2027,21 +2027,21 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>1144</v>
+        <v>1600</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>15/05/2015</t>
+          <t>18/05/2015</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130463964&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130478412&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Genérica Bloque San Sebastián</t>
+          <t>REINYECCIÓN DE FLUIDOS PRODUCTO DE LA EXTRACCIÓN DE HIDROCARBUROS EN 10 POZOS EXISTENTES EN ISLA</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2071,15 +2071,15 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>YPF Chile S.A.</t>
+          <t>Empresa Nacional del Petróleo - Magallanes</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>21440</v>
+        <v>1144</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>14/05/2015</t>
+          <t>15/05/2015</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -2089,7 +2089,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130460159&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130463964&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2127,17 +2127,17 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>27/04/2015</t>
+          <t>14/05/2015</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130425081&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130460159&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Línea de Flujo Fortuna Sur 1 (Ex A)</t>
+          <t>Genérica Bloque San Sebastián</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2167,25 +2167,25 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Empresa Nacional del Petróleo - Magallanes</t>
+          <t>YPF Chile S.A.</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>375</v>
+        <v>21440</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>18/03/2015</t>
+          <t>27/04/2015</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130328026&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130425081&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Modificación Línea de Flujo Chirihue-Tenca</t>
+          <t>Línea de Flujo Fortuna Sur 1 (Ex A)</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2215,15 +2215,15 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>GeoPark TDF SpA</t>
+          <t>Empresa Nacional del Petróleo - Magallanes</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>220</v>
+        <v>375</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>16/01/2015</t>
+          <t>18/03/2015</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -2233,7 +2233,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130160057&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130328026&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Construcción de Línea de Flujo pozo Tenca 3</t>
+          <t>Modificación Línea de Flujo Chirihue-Tenca</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2267,11 +2267,11 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>982</v>
+        <v>220</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>19/11/2014</t>
+          <t>16/01/2015</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -2281,7 +2281,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129979310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130160057&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Fracturación Hidráulica Pozos Lynch PK-A y Lynch Norte PK-A, Bloque Intracampos</t>
+          <t>Construcción de Línea de Flujo pozo Tenca 3</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2311,15 +2311,15 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Empresa Nacional del Petróleo - Magallanes</t>
+          <t>GeoPark TDF SpA</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>3600</v>
+        <v>982</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>06/11/2014</t>
+          <t>19/11/2014</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -2329,7 +2329,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129930279&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129979310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Construcción de Línea de flujo pozo Chercán 3</t>
+          <t>Fracturación Hidráulica Pozos Lynch PK-A y Lynch Norte PK-A, Bloque Intracampos</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2359,15 +2359,15 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>GeoPark TDF SpA</t>
+          <t>Empresa Nacional del Petróleo - Magallanes</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>1050</v>
+        <v>3600</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>20/08/2014</t>
+          <t>06/11/2014</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -2377,7 +2377,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129739344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129930279&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Fracturación Hidráulica en 14 Pozos de Hidrocarburos, Bloques Arenal e Intracampos</t>
+          <t>Construcción de Línea de flujo pozo Chercán 3</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2407,15 +2407,15 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Empresa Nacional del Petróleo - Magallanes</t>
+          <t>GeoPark TDF SpA</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>25200</v>
+        <v>1050</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>04/08/2014</t>
+          <t>20/08/2014</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -2425,7 +2425,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129692353&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129739344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Construcción Línea de flujo Chirihue-Tenca</t>
+          <t>Fracturación Hidráulica en 14 Pozos de Hidrocarburos, Bloques Arenal e Intracampos</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2455,15 +2455,15 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>GeoPark TDF SpA</t>
+          <t>Empresa Nacional del Petróleo - Magallanes</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>1200</v>
+        <v>25200</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>18/07/2014</t>
+          <t>04/08/2014</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -2473,7 +2473,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129651984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129692353&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Ampliación Polígono TN</t>
+          <t>Construcción Línea de flujo Chirihue-Tenca</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2507,11 +2507,11 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>32500</v>
+        <v>1200</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>27/06/2014</t>
+          <t>18/07/2014</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -2521,7 +2521,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129589845&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129651984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Perforación de Pozos Hidrocarburíferos en Área Koshpy</t>
+          <t>Ampliación Polígono TN</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2555,11 +2555,11 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>75000</v>
+        <v>32500</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>26/06/2014</t>
+          <t>27/06/2014</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
@@ -2569,7 +2569,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129585989&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129589845&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Perforación de Pozos Hidrocarburíferos en Área Koresken</t>
+          <t>Perforación de Pozos Hidrocarburíferos en Área Koshpy</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2607,7 +2607,7 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>02/06/2014</t>
+          <t>26/06/2014</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -2617,7 +2617,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129510170&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129585989&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Perforación de Pozos Hidrocarburíferos en Área Yowhen</t>
+          <t>Perforación de Pozos Hidrocarburíferos en Área Koresken</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2651,7 +2651,7 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>70000</v>
+        <v>75000</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
@@ -2665,7 +2665,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129506726&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129510170&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Transporte de hidrocarburos, Bloque Flamenco</t>
+          <t>Perforación de Pozos Hidrocarburíferos en Área Yowhen</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2699,11 +2699,11 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>1000</v>
+        <v>70000</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>29/05/2014</t>
+          <t>02/06/2014</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
@@ -2713,7 +2713,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129498686&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129506726&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Perforación de Pozos Hidrocarburíferos en Área Taiyin Norte</t>
+          <t>Transporte de hidrocarburos, Bloque Flamenco</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2747,11 +2747,11 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>22500</v>
+        <v>1000</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>22/04/2014</t>
+          <t>29/05/2014</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -2761,7 +2761,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129421024&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129498686&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Construcción de Línea de flujo pozo Chercán 2</t>
+          <t>Perforación de Pozos Hidrocarburíferos en Área Taiyin Norte</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2795,11 +2795,11 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>1000</v>
+        <v>22500</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>21/04/2014</t>
+          <t>22/04/2014</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
@@ -2809,7 +2809,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129409774&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129421024&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Perforación de Pozos Hidrocarburíferos en Área Tenenesk</t>
+          <t>Construcción de Línea de flujo pozo Chercán 2</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2843,7 +2843,7 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>75000</v>
+        <v>1000</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
@@ -2857,7 +2857,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129404472&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129409774&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Desarrollo del pozo Koshpy x-1</t>
+          <t>Perforación de Pozos Hidrocarburíferos en Área Tenenesk</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2891,11 +2891,11 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>800</v>
+        <v>75000</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>17/04/2014</t>
+          <t>21/04/2014</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
@@ -2905,7 +2905,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129407569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129404472&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Construcción de Línea de flujo pozo Cupanaca x-1</t>
+          <t>Desarrollo del pozo Koshpy x-1</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2939,11 +2939,11 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>977</v>
+        <v>800</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>21/03/2014</t>
+          <t>17/04/2014</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
@@ -2953,7 +2953,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129345520&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129407569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Construcción del Colector Troncal Flamenco</t>
+          <t>Construcción de Línea de flujo pozo Cupanaca x-1</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2983,11 +2983,11 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Empresa Nacional del Petróleo - Magallanes</t>
+          <t>GeoPark TDF SpA</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>7500</v>
+        <v>977</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
@@ -3001,7 +3001,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129346196&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129345520&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Construcción de Línea de flujo pozo Chirihue x-1</t>
+          <t>Construcción del Colector Troncal Flamenco</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3031,15 +3031,15 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>GeoPark TDF SpA</t>
+          <t>Empresa Nacional del Petróleo - Magallanes</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>976</v>
+        <v>7500</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>20/03/2014</t>
+          <t>21/03/2014</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
@@ -3049,7 +3049,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129341971&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129346196&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Construcción de Línea de Flujo Pozo Tenca x-1</t>
+          <t>Construcción de Línea de flujo pozo Chirihue x-1</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3083,11 +3083,11 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>972</v>
+        <v>976</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>27/02/2014</t>
+          <t>20/03/2014</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
@@ -3097,7 +3097,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129278942&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129341971&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Construcción de Línea de Flujo Pozo Kaum x-1</t>
+          <t>Construcción de Línea de Flujo Pozo Tenca x-1</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3131,7 +3131,7 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>1131</v>
+        <v>972</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
@@ -3145,7 +3145,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129278836&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129278942&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3160,7 +3160,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Construcción de línea de flujo pozo Chilco x-1</t>
+          <t>Construcción de Línea de Flujo Pozo Kaum x-1</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3179,11 +3179,11 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>672</v>
+        <v>1131</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>22/01/2014</t>
+          <t>27/02/2014</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
@@ -3193,7 +3193,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129153658&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129278836&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>PERFORACIÓN DE POZOS EXPLORATORIOS FORTUNA SUR A Y ROSAL B</t>
+          <t>Construcción de línea de flujo pozo Chilco x-1</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3223,15 +3223,15 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Empresa Nacional del Petróleo - Magallanes</t>
+          <t>GeoPark TDF SpA</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>2400</v>
+        <v>672</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>23/12/2013</t>
+          <t>22/01/2014</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
@@ -3241,7 +3241,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972447&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129153658&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Perforación de Pozos Hidrocarburíferos en Área Kloketen</t>
+          <t>PERFORACIÓN DE POZOS EXPLORATORIOS FORTUNA SUR A Y ROSAL B</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3271,15 +3271,15 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>GeoPark TDF SpA</t>
+          <t>Empresa Nacional del Petróleo - Magallanes</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>37500</v>
+        <v>2400</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>20/12/2013</t>
+          <t>23/12/2013</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
@@ -3289,7 +3289,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960918&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972447&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Perforación de Pozos Hidrocarburíferos en Área Elk Oeste</t>
+          <t>Perforación de Pozos Hidrocarburíferos en Área Kloketen</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3323,11 +3323,11 @@
         </is>
       </c>
       <c r="F62" t="n">
-        <v>25000</v>
+        <v>37500</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>18/12/2013</t>
+          <t>20/12/2013</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
@@ -3337,7 +3337,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128945020&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960918&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Perforación de Pozos Hidrocarburíferos en Área Yosi</t>
+          <t>Perforación de Pozos Hidrocarburíferos en Área Elk Oeste</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3371,11 +3371,11 @@
         </is>
       </c>
       <c r="F63" t="n">
-        <v>45000</v>
+        <v>25000</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>17/12/2013</t>
+          <t>18/12/2013</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
@@ -3385,7 +3385,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128930096&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128945020&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Extensión del Colector Arenal, Chañarcillo 37 - Central 4 Chañarcillo</t>
+          <t>Perforación de Pozos Hidrocarburíferos en Área Yosi</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3415,15 +3415,15 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Empresa Nacional del Petróleo - Magallanes</t>
+          <t>GeoPark TDF SpA</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>250</v>
+        <v>45000</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>06/12/2013</t>
+          <t>17/12/2013</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
@@ -3433,7 +3433,7 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128886746&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128930096&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3448,7 +3448,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Perforación de Pozos Hidrocarburíferos en Área Hámhmam Central Norte</t>
+          <t>Extensión del Colector Arenal, Chañarcillo 37 - Central 4 Chañarcillo</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3463,15 +3463,15 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>GeoPark TDF SpA</t>
+          <t>Empresa Nacional del Petróleo - Magallanes</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>15000</v>
+        <v>250</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>20/11/2013</t>
+          <t>06/12/2013</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
@@ -3481,7 +3481,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128835838&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128886746&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3496,7 +3496,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Desarrollo del pozo Tagua x-1</t>
+          <t>Perforación de Pozos Hidrocarburíferos en Área Hámhmam Central Norte</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3515,11 +3515,11 @@
         </is>
       </c>
       <c r="F66" t="n">
-        <v>605</v>
+        <v>15000</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>24/10/2013</t>
+          <t>20/11/2013</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
@@ -3529,7 +3529,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128719747&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128835838&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Perforación de Pozos Hidrocarburíferos en Área Kankoat</t>
+          <t>Desarrollo del pozo Tagua x-1</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3563,11 +3563,11 @@
         </is>
       </c>
       <c r="F67" t="n">
-        <v>30000</v>
+        <v>605</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>21/10/2013</t>
+          <t>24/10/2013</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
@@ -3577,7 +3577,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128704347&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128719747&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3592,7 +3592,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Implementación de un Sistema de Manejo de Vahos de la Planta Elaboradora de Nutrientes y Alimentos Funcionales</t>
+          <t>Perforación de Pozos Hidrocarburíferos en Área Kankoat</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3607,15 +3607,15 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>AQUAPROTEIN S. A.</t>
+          <t>GeoPark TDF SpA</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>979</v>
+        <v>30000</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>17/09/2013</t>
+          <t>21/10/2013</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
@@ -3625,7 +3625,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128581646&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128704347&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Construcción de Línea de Flujo para el Pozo Águila 1</t>
+          <t>Implementación de un Sistema de Manejo de Vahos de la Planta Elaboradora de Nutrientes y Alimentos Funcionales</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3655,15 +3655,15 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Empresa Nacional del Petróleo - Magallanes</t>
+          <t>AQUAPROTEIN S. A.</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>120</v>
+        <v>979</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>13/09/2013</t>
+          <t>17/09/2013</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
@@ -3673,7 +3673,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128513540&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128581646&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>GENÉRICA SUB-BLOQUES LYNCH B, CULLEN Y FORTUNA</t>
+          <t>Construcción de Línea de Flujo para el Pozo Águila 1</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3707,11 +3707,11 @@
         </is>
       </c>
       <c r="F70" t="n">
-        <v>18000</v>
+        <v>120</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>05/09/2013</t>
+          <t>13/09/2013</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
@@ -3721,7 +3721,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128537723&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128513540&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>CONSTRUCCIÓN DE LÍNEA DE FLUJO POZO CHERCÁN X-1</t>
+          <t>GENÉRICA SUB-BLOQUES LYNCH B, CULLEN Y FORTUNA</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3751,15 +3751,15 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>GeoPark TDF SpA</t>
+          <t>Empresa Nacional del Petróleo - Magallanes</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>370</v>
+        <v>18000</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>27/08/2013</t>
+          <t>05/09/2013</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
@@ -3769,7 +3769,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128505360&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128537723&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3784,7 +3784,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>GENÉRICA SUB-BLOQUES LYNCH B, CULLEN Y FORTUNA</t>
+          <t>CONSTRUCCIÓN DE LÍNEA DE FLUJO POZO CHERCÁN X-1</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3799,25 +3799,25 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Empresa Nacional del Petróleo - Magallanes</t>
+          <t>GeoPark TDF SpA</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>18000</v>
+        <v>370</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>26/07/2013</t>
+          <t>27/08/2013</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8379565&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128505360&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3832,7 +3832,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>PERFORACIÓN DE POZOS HIDROCARBURÍFEROS EN ÁREA ELK NORTE</t>
+          <t>GENÉRICA SUB-BLOQUES LYNCH B, CULLEN Y FORTUNA</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3847,25 +3847,25 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>GeoPark TDF SpA</t>
+          <t>Empresa Nacional del Petróleo - Magallanes</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>25000</v>
+        <v>18000</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>02/07/2013</t>
+          <t>26/07/2013</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8273568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8379565&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3880,7 +3880,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>PERFORACIÓN DE POZOS HIDROCARBURÍFEROS EN ÁREA HÁMHMAM CENTRAL SUR</t>
+          <t>PERFORACIÓN DE POZOS HIDROCARBURÍFEROS EN ÁREA ELK NORTE</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3899,11 +3899,11 @@
         </is>
       </c>
       <c r="F74" t="n">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>28/06/2013</t>
+          <t>02/07/2013</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
@@ -3913,7 +3913,7 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8293955&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8273568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>PERFORACIÓN DE POZOS HIDROCARBURÍFEROS EN ÁREA TEORATI</t>
+          <t>PERFORACIÓN DE POZOS HIDROCARBURÍFEROS EN ÁREA HÁMHMAM CENTRAL SUR</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3947,11 +3947,11 @@
         </is>
       </c>
       <c r="F75" t="n">
-        <v>25000</v>
+        <v>15000</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>21/06/2013</t>
+          <t>28/06/2013</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
@@ -3961,7 +3961,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8259721&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8293955&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>PERFORACIÓN DE POZOS HIDROCARBURÍFEROS EN ÁREA KENOS</t>
+          <t>PERFORACIÓN DE POZOS HIDROCARBURÍFEROS EN ÁREA TEORATI</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3995,11 +3995,11 @@
         </is>
       </c>
       <c r="F76" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>12/06/2013</t>
+          <t>21/06/2013</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
@@ -4009,7 +4009,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8240988&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8259721&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Desarrollo del pozo Omeling X-1</t>
+          <t>PERFORACIÓN DE POZOS HIDROCARBURÍFEROS EN ÁREA KENOS</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4043,7 +4043,7 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>605</v>
+        <v>20000</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
@@ -4057,7 +4057,7 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8244993&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8240988&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Desarrollo del pozo Yakamush x-1</t>
+          <t>Desarrollo del pozo Omeling X-1</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4095,7 +4095,7 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>07/06/2013</t>
+          <t>12/06/2013</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
@@ -4105,7 +4105,7 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8224246&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8244993&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4120,7 +4120,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Desarrollo del pozo Chercán x-1</t>
+          <t>Desarrollo del pozo Yakamush x-1</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4143,7 +4143,7 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>28/05/2013</t>
+          <t>07/06/2013</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
@@ -4153,7 +4153,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8181617&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8224246&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4168,7 +4168,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Extracción de Áridos La Chimba</t>
+          <t>Desarrollo del pozo Chercán x-1</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4183,15 +4183,15 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>ServiAustral S.A.</t>
+          <t>GeoPark TDF SpA</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>440</v>
+        <v>605</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>26/10/2012</t>
+          <t>28/05/2013</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
@@ -4201,7 +4201,7 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7409316&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8181617&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4216,7 +4216,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Modificación del Trazado de la Línea de Flujo para el pozo Fortuna A</t>
+          <t>Extracción de Áridos La Chimba</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4231,15 +4231,15 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Empresa Nacional del Petróleo - Magallanes</t>
+          <t>ServiAustral S.A.</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>400</v>
+        <v>440</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>22/10/2012</t>
+          <t>26/10/2012</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
@@ -4249,7 +4249,7 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7449676&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7409316&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4264,7 +4264,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de RILES, Planta Pesquera Cabo Froward - Porvenir</t>
+          <t>Modificación del Trazado de la Línea de Flujo para el pozo Fortuna A</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4279,15 +4279,15 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Pesquera Cabo Froward Ltda.</t>
+          <t>Empresa Nacional del Petróleo - Magallanes</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>10</v>
+        <v>400</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>28/09/2012</t>
+          <t>22/10/2012</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
@@ -4297,7 +4297,7 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7301620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7449676&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>ACTIVIDADES DE PERFORACIÓN DE POZOS EN ÁREA SUR-ESTE BLOQUE CAUPOLICÁN, TIERRA DEL FUEGO.</t>
+          <t>Sistema de Tratamiento de RILES, Planta Pesquera Cabo Froward - Porvenir</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4327,15 +4327,15 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Empresa Nacional del Petróleo - Magallanes</t>
+          <t>Pesquera Cabo Froward Ltda.</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>90000</v>
+        <v>10</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>25/09/2012</t>
+          <t>28/09/2012</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
@@ -4345,7 +4345,7 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7203199&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7301620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>actividades de perforación de pozos en área sur Bloque Porvenir, Tierra del Fuego</t>
+          <t>ACTIVIDADES DE PERFORACIÓN DE POZOS EN ÁREA SUR-ESTE BLOQUE CAUPOLICÁN, TIERRA DEL FUEGO.</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4375,15 +4375,15 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>PETROMAGALLANES OPERACIONES LTDA.</t>
+          <t>Empresa Nacional del Petróleo - Magallanes</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>96000</v>
+        <v>90000</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>19/07/2012</t>
+          <t>25/09/2012</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
@@ -4393,7 +4393,7 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7129616&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7203199&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -4408,7 +4408,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>ACTIVIDADES DE PERFORACION POZOS EN ÁREA SUR BLOQUE PORVENIR, TIERRA DEL FUEGO</t>
+          <t>actividades de perforación de pozos en área sur Bloque Porvenir, Tierra del Fuego</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4431,17 +4431,17 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>24/05/2012</t>
+          <t>19/07/2012</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6920705&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7129616&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>ACTIVIDADES DE PERFORACION POZOS EN ÁREA POZO FUEGUINO, TIERRA DEL FUEGO"</t>
+          <t>ACTIVIDADES DE PERFORACION POZOS EN ÁREA SUR BLOQUE PORVENIR, TIERRA DEL FUEGO</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4471,7 +4471,7 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Empresa Nacional del Petróleo - Magallanes</t>
+          <t>PETROMAGALLANES OPERACIONES LTDA.</t>
         </is>
       </c>
       <c r="F86" t="n">
@@ -4479,17 +4479,17 @@
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>20/12/2011</t>
+          <t>24/05/2012</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6192821&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6920705&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -4504,7 +4504,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Construcción Línea de Flujo para Pozo Fortuna A</t>
+          <t>ACTIVIDADES DE PERFORACION POZOS EN ÁREA POZO FUEGUINO, TIERRA DEL FUEGO"</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4523,11 +4523,11 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>400</v>
+        <v>96000</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>28/11/2011</t>
+          <t>20/12/2011</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
@@ -4537,7 +4537,7 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6313511&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6192821&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -4552,7 +4552,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>PLANTA DE TRATAMIENTO DE RILES POR MEDIO DEL SISTEMA BIDA DEL FRIGORIFICO TIERRA DEL FUEGO</t>
+          <t>Construcción Línea de Flujo para Pozo Fortuna A</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4567,25 +4567,25 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>CECINAS BAVARIA LTDA.</t>
+          <t>Empresa Nacional del Petróleo - Magallanes</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>18/10/2011</t>
+          <t>28/11/2011</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6065701&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6313511&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -4600,7 +4600,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Perforación de Pozo Exploración Fortuna A</t>
+          <t>PLANTA DE TRATAMIENTO DE RILES POR MEDIO DEL SISTEMA BIDA DEL FRIGORIFICO TIERRA DEL FUEGO</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4615,25 +4615,25 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Empresa Nacional del Petróleo - Magallanes</t>
+          <t>CECINAS BAVARIA LTDA.</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>3500</v>
+        <v>1000</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>11/04/2011</t>
+          <t>18/10/2011</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5516233&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6065701&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -4648,7 +4648,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Conservación Vía de Navegación Bahía Chilota, Porvenir</t>
+          <t>Perforación de Pozo Exploración Fortuna A</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4663,15 +4663,15 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Empresa Nacional del Petróleo - Magallanes</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>7375</v>
+        <v>3500</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>17/03/2011</t>
+          <t>11/04/2011</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
@@ -4681,7 +4681,7 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5420511&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5516233&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -4696,7 +4696,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de RILES, Planta Pesquera SERVI-POR Porvenir</t>
+          <t>Conservación Vía de Navegación Bahía Chilota, Porvenir</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4711,15 +4711,15 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Servicios Porvenir y Cía. Ltda.</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>10</v>
+        <v>7375</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>08/09/2010</t>
+          <t>17/03/2011</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
@@ -4729,7 +4729,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4860656&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5420511&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -4744,7 +4744,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Modificación Sistema de tratamiento RILes, Frigorífico Patagonia S.A. M.S.T. RILes, Frig. Patagonia (e-seia)</t>
+          <t>Sistema de Tratamiento de RILES, Planta Pesquera SERVI-POR Porvenir</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4759,15 +4759,15 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Frigorífico Patagonia S.A.</t>
+          <t>Servicios Porvenir y Cía. Ltda.</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>03/12/2009</t>
+          <t>08/09/2010</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
@@ -4777,7 +4777,7 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4231852&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4860656&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -4792,7 +4792,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Modificación Sistema de Tratamiento RILes, Frigorífico Patagonia S.A. Modificación SRT_Frigorífico Patagonia (e-seia)</t>
+          <t>Modificación Sistema de tratamiento RILes, Frigorífico Patagonia S.A. M.S.T. RILes, Frig. Patagonia (e-seia)</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4815,17 +4815,17 @@
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>24/11/2009</t>
+          <t>03/12/2009</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4202512&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4231852&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -4840,7 +4840,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Planta Elaboradora de Nutrientes y Alimentos Funcionales Planta Elab. de Nutrientes y Alimentos (e-seia)</t>
+          <t>Modificación Sistema de Tratamiento RILes, Frigorífico Patagonia S.A. Modificación SRT_Frigorífico Patagonia (e-seia)</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4855,25 +4855,25 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>AQUAPROTEIN S. A.</t>
+          <t>Frigorífico Patagonia S.A.</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>2204</v>
+        <v>0</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>17/11/2009</t>
+          <t>24/11/2009</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4183129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4202512&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -4888,7 +4888,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE MITILIDOS, COMERCIAL PORVENIR Y COMPAÑÍA LIMITADA (e-seia)</t>
+          <t>Planta Elaboradora de Nutrientes y Alimentos Funcionales Planta Elab. de Nutrientes y Alimentos (e-seia)</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4903,15 +4903,15 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Comercial Porvenir y CIA LTDA.</t>
+          <t>AQUAPROTEIN S. A.</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>628</v>
+        <v>2204</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>05/10/2009</t>
+          <t>17/11/2009</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
@@ -4921,7 +4921,7 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4071451&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4183129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -4936,7 +4936,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de Riles - Planta BIOTEX DOS S.A. (e-seia)</t>
+          <t>CENTRO DE CULTIVO DE MITILIDOS, COMERCIAL PORVENIR Y COMPAÑÍA LIMITADA (e-seia)</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4951,15 +4951,15 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>BIOTEX DOS S.A.</t>
+          <t>Comercial Porvenir y CIA LTDA.</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>100</v>
+        <v>628</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>29/07/2009</t>
+          <t>05/10/2009</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
@@ -4969,7 +4969,7 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3874415&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4071451&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -4984,7 +4984,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>POZOS EXPLORATORIOS LENGA-RUSSFIN, TIERRA DEL FUEGO (e-seia)</t>
+          <t>Sistema de Tratamiento de Riles - Planta BIOTEX DOS S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4999,15 +4999,15 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Apache Chile Energía SPA.</t>
+          <t>BIOTEX DOS S.A.</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>25000</v>
+        <v>100</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>17/07/2009</t>
+          <t>29/07/2009</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
@@ -5017,7 +5017,7 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3905716&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3874415&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5032,7 +5032,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>INSTALACION DE CURTIEMBRE CRECELAN EN PORVENIR (e-seia)</t>
+          <t>POZOS EXPLORATORIOS LENGA-RUSSFIN, TIERRA DEL FUEGO (e-seia)</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -5047,15 +5047,15 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Crecelan Limitada</t>
+          <t>Apache Chile Energía SPA.</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>1000</v>
+        <v>25000</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>08/04/2009</t>
+          <t>17/07/2009</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
@@ -5065,7 +5065,7 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3685945&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3905716&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -5103,17 +5103,17 @@
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>02/04/2009</t>
+          <t>08/04/2009</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3669540&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3685945&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5128,7 +5128,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Modificación Planta Nova Austral en Porvenir (e-seia)</t>
+          <t>INSTALACION DE CURTIEMBRE CRECELAN EN PORVENIR (e-seia)</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5143,25 +5143,25 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Nova Austral S.A.</t>
+          <t>Crecelan Limitada</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>09/03/2009</t>
+          <t>02/04/2009</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3613468&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3669540&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5199,17 +5199,17 @@
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>11/02/2009</t>
+          <t>09/03/2009</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3537869&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3613468&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5224,7 +5224,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE MITÍLIDOS, COMERCIAL PORVENIR Y COMPAÑÍA LIMITADA Entre Cabo Boquerón y Caleta Esperanza, Bahía Inútil. (e-seia)</t>
+          <t>Modificación Planta Nova Austral en Porvenir (e-seia)</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5239,25 +5239,25 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Comercial Porvenir y CIA LTDA.</t>
+          <t>Nova Austral S.A.</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>628</v>
+        <v>1500</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>23/12/2008</t>
+          <t>11/02/2009</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3381147&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3537869&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -5272,7 +5272,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE MITÍLIDOS, COMERCIAL PORVENIR Y COMPAÑÍA LIMITADAS. Suroeste Caleta Esperanza, Bahía Inútil (e-seia)</t>
+          <t>CENTRO DE CULTIVO DE MITÍLIDOS, COMERCIAL PORVENIR Y COMPAÑÍA LIMITADA Entre Cabo Boquerón y Caleta Esperanza, Bahía Inútil. (e-seia)</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5305,7 +5305,7 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3390632&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3381147&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -5320,7 +5320,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>"SISTEMA DE TRATAMIENTO DE RESIDUOS INDUSTRIALES LIQUIDOS PARA LA PLANTA PROCESADORA DE PRODUCTOS DEL MAR PESCA HIELOS AUSTRALES EN PORVENIR" (e-seia)</t>
+          <t>CENTRO DE CULTIVO DE MITÍLIDOS, COMERCIAL PORVENIR Y COMPAÑÍA LIMITADAS. Suroeste Caleta Esperanza, Bahía Inútil (e-seia)</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5335,15 +5335,15 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>PESCA HIELOS AUSTRALES Ltda.</t>
+          <t>Comercial Porvenir y CIA LTDA.</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>44</v>
+        <v>628</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>18/08/2008</t>
+          <t>23/12/2008</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
@@ -5353,7 +5353,7 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3115335&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3390632&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -5368,7 +5368,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>SISTEMA DE TRATAMIENTO DE RESIDUOS INDUSTRIALES LIQUIDOS PARA LA PLANTA PROCESADORA DE PRODUCTOS DEL MAR PESCA HIELOS AUSTRALES EN PORVENIR (e-seia)</t>
+          <t>"SISTEMA DE TRATAMIENTO DE RESIDUOS INDUSTRIALES LIQUIDOS PARA LA PLANTA PROCESADORA DE PRODUCTOS DEL MAR PESCA HIELOS AUSTRALES EN PORVENIR" (e-seia)</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5391,17 +5391,17 @@
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>31/07/2008</t>
+          <t>18/08/2008</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3032389&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3115335&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -5416,7 +5416,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Sistema de Matanza y Cosecha de Salmones in Situ Sistema de Matanza y Cosecha de Salmones in Situ (e-seia)</t>
+          <t>SISTEMA DE TRATAMIENTO DE RESIDUOS INDUSTRIALES LIQUIDOS PARA LA PLANTA PROCESADORA DE PRODUCTOS DEL MAR PESCA HIELOS AUSTRALES EN PORVENIR (e-seia)</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5426,20 +5426,20 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Duodécima</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Kuality Harvest SA</t>
+          <t>PESCA HIELOS AUSTRALES Ltda.</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>1200</v>
+        <v>44</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>29/07/2008</t>
+          <t>31/07/2008</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
@@ -5449,7 +5449,7 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2956347&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3032389&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -5464,7 +5464,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Tratamiento de Riles para Planta de Deshidratado y Elaboración de Extractos de Algas Marinas. Comuna de Porvenir. Región de Magallanes y Antártica Chilena (e-seia)</t>
+          <t>Sistema de Matanza y Cosecha de Salmones in Situ Sistema de Matanza y Cosecha de Salmones in Situ (e-seia)</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5474,30 +5474,30 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Duodécima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Marine Gel Antartic S.A</t>
+          <t>Kuality Harvest SA</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>650</v>
+        <v>1200</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>11/06/2008</t>
+          <t>29/07/2008</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2960632&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2956347&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -5512,7 +5512,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>PERFORACIÓN POZOS EXPLORATORIOS EN BLOQUE INTRACAMPOS (e-seia)</t>
+          <t>Tratamiento de Riles para Planta de Deshidratado y Elaboración de Extractos de Algas Marinas. Comuna de Porvenir. Región de Magallanes y Antártica Chilena (e-seia)</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -5527,15 +5527,15 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Empresa Nacional del Petróleo - Magallanes</t>
+          <t>Marine Gel Antartic S.A</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>25200</v>
+        <v>650</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>11/03/2008</t>
+          <t>11/06/2008</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
@@ -5545,7 +5545,7 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2771131&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2960632&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -5560,7 +5560,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de RILES, Planta Elaboradora de Alimentos Porvenir (e-seia)</t>
+          <t>PERFORACIÓN POZOS EXPLORATORIOS EN BLOQUE INTRACAMPOS (e-seia)</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -5575,15 +5575,15 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>ELDAP S.A.</t>
+          <t>Empresa Nacional del Petróleo - Magallanes</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>77</v>
+        <v>25200</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>27/11/2007</t>
+          <t>11/03/2008</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
@@ -5593,7 +5593,7 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2519393&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2771131&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -5608,7 +5608,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de RILES, Frigorífico Patagonia (e-seia)</t>
+          <t>Sistema de Tratamiento de RILES, Planta Elaboradora de Alimentos Porvenir (e-seia)</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5623,15 +5623,15 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Frigorífico Patagonia S.A.</t>
+          <t>ELDAP S.A.</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>25/10/2007</t>
+          <t>27/11/2007</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
@@ -5641,7 +5641,7 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2460959&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2519393&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -5656,7 +5656,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>SANEAMIENTO AMBIENTAL DE 606 FOSAS SECTOR ISLA Y CONTINENTE Saneamiento Ambiental de 606 Fosas (e-seia)</t>
+          <t>Sistema de Tratamiento de RILES, Frigorífico Patagonia (e-seia)</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5671,15 +5671,15 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Empresa Nacional del Petróleo - Magallanes</t>
+          <t>Frigorífico Patagonia S.A.</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>13000</v>
+        <v>100</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>24/09/2007</t>
+          <t>25/10/2007</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
@@ -5689,7 +5689,7 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2395647&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2460959&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -5704,7 +5704,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>SANEAMIENTO AMBIENTAL DE 606 FOSAS SECTOR ISLA Y CONTINENTE Saneamiento Ambiental de 606 Fosas (e-seia)</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5714,30 +5714,30 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Duodécima</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Empresa Nacional del Petróleo - Magallanes</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>300</v>
+        <v>13000</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>24/09/2007</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2395647&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -5752,7 +5752,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN PLAN REGIONAL DE DESARROLLO URBANO REGIÓN DE MAGALLANES Y LA ANTÁRTICA CHILENA (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5762,30 +5762,30 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Duodécima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo, Región de Magallanes y Antártica Chilena</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>25/06/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2214933&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -5800,7 +5800,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>PLan Cierre Vertedero Comuna de Porvenir. Plan de Cierre Vertedero de Porvenir (e-seia)</t>
+          <t>MODIFICACIÓN PLAN REGIONAL DE DESARROLLO URBANO REGIÓN DE MAGALLANES Y LA ANTÁRTICA CHILENA (e-seia)</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5815,15 +5815,15 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Porvenir</t>
+          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo, Región de Magallanes y Antártica Chilena</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>248</v>
+        <v>0</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>19/03/2007</t>
+          <t>25/06/2007</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
@@ -5833,7 +5833,7 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2007616&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2214933&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -5848,7 +5848,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>PLan Cierre Vertedero Comuna de Porvenir. Plan de Cierre Vertedero de Porvenir (e-seia)</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5858,30 +5858,30 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Duodécima</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Ilustre Municipalidad de Porvenir</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>200</v>
+        <v>248</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>19/03/2007</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2007616&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -5896,7 +5896,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Saneamiento Ambiental de 148 Fosas Tres Lagos-Flamenco Saneamiento Ambiental de 148 Fosas. (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5906,30 +5906,30 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Duodécima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Empresa Nacional del Petróleo - Magallanes</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>4500</v>
+        <v>200</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1899698&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -5944,7 +5944,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Saneamiento Ambiental de 148 Fosas Tres Lagos-Flamenco Saneamiento Ambiental de 148 Fosas. (e-seia)</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5954,16 +5954,16 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Duodécima</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Empresa Nacional del Petróleo - Magallanes</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>200</v>
+        <v>4500</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
@@ -5972,12 +5972,12 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1899698&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -5992,7 +5992,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>SANEAMIENTO AMBIENTAL DE 72 FOSAS CULLEN B Saneamiento Ambiental de 72 Fosas Cullen B (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -6002,30 +6002,30 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Duodécima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Empresa Nacional del Petróleo - Magallanes</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>22/12/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889800&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -6040,7 +6040,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>DRAGADO ÁREAS DE MANIOBRAS MUELLE PESQUERO ARTESANAL BAHÍA CHILOTA, PORVENIR (e-seia)</t>
+          <t>SANEAMIENTO AMBIENTAL DE 72 FOSAS CULLEN B Saneamiento Ambiental de 72 Fosas Cullen B (e-seia)</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -6055,15 +6055,15 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Empresa Nacional del Petróleo - Magallanes</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>07/11/2006</t>
+          <t>22/12/2006</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
@@ -6073,7 +6073,7 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1782713&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889800&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -6088,7 +6088,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de RILES, Frigorífico Patagonia, Porvenir (e-seia)</t>
+          <t>DRAGADO ÁREAS DE MANIOBRAS MUELLE PESQUERO ARTESANAL BAHÍA CHILOTA, PORVENIR (e-seia)</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -6103,15 +6103,15 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Frigorífico Patagonia S.A.</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>100</v>
+        <v>42</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>20/07/2006</t>
+          <t>07/11/2006</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
@@ -6121,7 +6121,7 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1563826&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1782713&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -6136,7 +6136,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Residuos Lìquidos Industriales "Inmobiliaria Majegui" (e-seia)</t>
+          <t>Sistema de Tratamiento de RILES, Frigorífico Patagonia, Porvenir (e-seia)</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -6151,15 +6151,15 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Inmobiliaria Majegui</t>
+          <t>Frigorífico Patagonia S.A.</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>61</v>
+        <v>100</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>17/07/2006</t>
+          <t>20/07/2006</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
@@ -6169,7 +6169,7 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1572155&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1563826&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -6184,7 +6184,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Residuos Industriales Lìquidos "Inmobiliaria Majegui" (e-seia)</t>
+          <t>Planta de Tratamiento de Residuos Lìquidos Industriales "Inmobiliaria Majegui" (e-seia)</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -6199,7 +6199,7 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Juan Carlos Apara Manzur</t>
+          <t>Inmobiliaria Majegui</t>
         </is>
       </c>
       <c r="F122" t="n">
@@ -6207,17 +6207,17 @@
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>04/07/2006</t>
+          <t>17/07/2006</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1498326&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1572155&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -6232,7 +6232,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Transporte de residuos industriales a plantas de disposicion final (e-seia)</t>
+          <t>Planta de Tratamiento de Residuos Industriales Lìquidos "Inmobiliaria Majegui" (e-seia)</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -6247,25 +6247,25 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>SERVIMER Servicios Integrados Limitada</t>
+          <t>Juan Carlos Apara Manzur</t>
         </is>
       </c>
       <c r="F123" t="n">
-        <v>150</v>
+        <v>61</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>29/06/2006</t>
+          <t>04/07/2006</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1522053&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1498326&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -6280,7 +6280,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales a Plantas de Disposición Final (e-seia)</t>
+          <t>Transporte de residuos industriales a plantas de disposicion final (e-seia)</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -6295,7 +6295,7 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Mario Mercier Opazo</t>
+          <t>SERVIMER Servicios Integrados Limitada</t>
         </is>
       </c>
       <c r="F124" t="n">
@@ -6303,17 +6303,17 @@
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>08/06/2006</t>
+          <t>29/06/2006</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1489961&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1522053&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -6328,7 +6328,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>Transporte de Residuos Industriales a Plantas de Disposición Final (e-seia)</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6338,30 +6338,30 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Duodécima</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Mario Mercier Opazo</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>4000</v>
+        <v>150</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>27/03/2006</t>
+          <t>08/06/2006</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1489961&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -6376,7 +6376,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6399,17 +6399,17 @@
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>06/03/2006</t>
+          <t>27/03/2006</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -6424,7 +6424,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Disposición final aguas servidas ciudad de Porvenir (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -6434,30 +6434,30 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Duodécima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Aguas Magallanes S.A.</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F127" t="n">
-        <v>1180</v>
+        <v>4000</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>19/10/2005</t>
+          <t>06/03/2006</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1053948&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -6472,12 +6472,12 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Exploración Lago Mercedes XII Región Instalaciones de Producción</t>
+          <t>Disposición final aguas servidas ciudad de Porvenir (e-seia)</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -6487,15 +6487,15 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Empresa Nacional del Petróleo - Magallanes</t>
+          <t>Aguas Magallanes S.A.</t>
         </is>
       </c>
       <c r="F128" t="n">
-        <v>73200</v>
+        <v>1180</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>05/07/2005</t>
+          <t>19/10/2005</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
@@ -6505,7 +6505,7 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=940740&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1053948&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -6520,7 +6520,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Centro de Manejo de Residuos Sólidos de Porvenir</t>
+          <t>Exploración Lago Mercedes XII Región Instalaciones de Producción</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -6535,15 +6535,15 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Porvenir</t>
+          <t>Empresa Nacional del Petróleo - Magallanes</t>
         </is>
       </c>
       <c r="F129" t="n">
-        <v>3000</v>
+        <v>73200</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>16/05/2005</t>
+          <t>05/07/2005</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
@@ -6553,7 +6553,7 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=862381&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=940740&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -6568,12 +6568,12 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Modificación a la DIA Diseño y Construcción Planta de Tratamiento de Aguas Servidas de la ciudad de Porvenir (e-seia)</t>
+          <t>Centro de Manejo de Residuos Sólidos de Porvenir</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -6583,25 +6583,25 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Aguas Magallanes S.A.</t>
+          <t>Ilustre Municipalidad de Porvenir</t>
         </is>
       </c>
       <c r="F130" t="n">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>04/05/2005</t>
+          <t>16/05/2005</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=661028&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=862381&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -6616,7 +6616,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Drenaje Superficial El Álamo - Tierra del Fuego (e-seia)</t>
+          <t>Modificación a la DIA Diseño y Construcción Planta de Tratamiento de Aguas Servidas de la ciudad de Porvenir (e-seia)</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -6631,25 +6631,25 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Comunidad Agrícola Fajardo</t>
+          <t>Aguas Magallanes S.A.</t>
         </is>
       </c>
       <c r="F131" t="n">
-        <v>220</v>
+        <v>0</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>07/12/2004</t>
+          <t>04/05/2005</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=532546&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=661028&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -6664,7 +6664,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>PROYECTO PARA LA EXTRACCION, PRODUCCION Y COMERCIALIZACION DE GUANO ROJO DE COVADERAS DE LA XII REGION DE MAGALLANES Y LA ANTARTICA CHILENA CHILE (e-seia)</t>
+          <t>Drenaje Superficial El Álamo - Tierra del Fuego (e-seia)</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6679,15 +6679,15 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Gabriel Patiño Kaufer</t>
+          <t>Comunidad Agrícola Fajardo</t>
         </is>
       </c>
       <c r="F132" t="n">
-        <v>16000</v>
+        <v>220</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>15/11/2004</t>
+          <t>07/12/2004</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
@@ -6697,7 +6697,7 @@
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=508754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=532546&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -6712,7 +6712,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>PROYECTO PARA LA EXTRACCION, PRODUCCION Y COMERCIALIZACION DE GUANO ROJO DE COVADERAS DE LA XII REGION DE MAGALLANES Y LA ANTARTICA CHILENA -CHILE (e-seia)</t>
+          <t>PROYECTO PARA LA EXTRACCION, PRODUCCION Y COMERCIALIZACION DE GUANO ROJO DE COVADERAS DE LA XII REGION DE MAGALLANES Y LA ANTARTICA CHILENA CHILE (e-seia)</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6735,17 +6735,17 @@
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>16/06/2004</t>
+          <t>15/11/2004</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=377223&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=508754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -6760,7 +6760,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Transporte de Plaguicidas y Artefactos Contaminados o que Contienen Bifenilospoliclorados (PCB) (e-seia)</t>
+          <t>PROYECTO PARA LA EXTRACCION, PRODUCCION Y COMERCIALIZACION DE GUANO ROJO DE COVADERAS DE LA XII REGION DE MAGALLANES Y LA ANTARTICA CHILENA -CHILE (e-seia)</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6770,20 +6770,20 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Duodécima</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>Gabriel Patiño Kaufer</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>200</v>
+        <v>16000</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>30/04/2004</t>
+          <t>16/06/2004</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
@@ -6793,7 +6793,7 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=339300&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=377223&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -6808,7 +6808,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Planta de Deshidratado y Elaboración de Extractos de Algas Marinas en Porvenir, XII Región (e-seia)</t>
+          <t>Transporte de Plaguicidas y Artefactos Contaminados o que Contienen Bifenilospoliclorados (PCB) (e-seia)</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6818,30 +6818,30 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Duodécima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Marine Gel Antartic S.A</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>3000</v>
+        <v>200</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>22/01/2004</t>
+          <t>30/04/2004</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=254765&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=339300&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -6856,7 +6856,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Planta procesadora de Turba (Musgo sphagnum) en Porvenir (e-seia)</t>
+          <t>Planta de Deshidratado y Elaboración de Extractos de Algas Marinas en Porvenir, XII Región (e-seia)</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6871,25 +6871,25 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>TURBA TIERRA DEL FUEGO CHILE S.A.</t>
+          <t>Marine Gel Antartic S.A</t>
         </is>
       </c>
       <c r="F136" t="n">
-        <v>600</v>
+        <v>3000</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>30/10/2003</t>
+          <t>22/01/2004</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=186300&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=254765&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -6904,7 +6904,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Colada Continua Ascendente (e-seia)</t>
+          <t>Planta procesadora de Turba (Musgo sphagnum) en Porvenir (e-seia)</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6919,25 +6919,25 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>COLCAUSA S.A.</t>
+          <t>TURBA TIERRA DEL FUEGO CHILE S.A.</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>2269</v>
+        <v>600</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>22/08/2003</t>
+          <t>30/10/2003</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=133073&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=186300&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -6952,7 +6952,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Piscicultura Los Colorines (e-seia)</t>
+          <t>Colada Continua Ascendente (e-seia)</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6967,15 +6967,15 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Nova Austral S.A.</t>
+          <t>COLCAUSA S.A.</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>1500</v>
+        <v>2269</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>20/08/2003</t>
+          <t>22/08/2003</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
@@ -6985,7 +6985,7 @@
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=126605&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=133073&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -7000,7 +7000,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano Región de Magallanes y Antártica Chilena (e-seia)</t>
+          <t>Piscicultura Los Colorines (e-seia)</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -7015,11 +7015,11 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial XIIª Región - Ministerio de Vivienda y Urbanismo</t>
+          <t>Nova Austral S.A.</t>
         </is>
       </c>
       <c r="F139" t="n">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
@@ -7033,7 +7033,7 @@
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=131263&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=126605&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -7048,7 +7048,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Conservación Dragado Canal de Acceso Bahía Chilota (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano Región de Magallanes y Antártica Chilena (e-seia)</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -7063,15 +7063,15 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Secretaría Regional Ministerial XIIª Región - Ministerio de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F140" t="n">
-        <v>203</v>
+        <v>0</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>27/01/2003</t>
+          <t>20/08/2003</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
@@ -7081,7 +7081,7 @@
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=45181&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=131263&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -7096,7 +7096,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Exploración Cordón Baquedano</t>
+          <t>Conservación Dragado Canal de Acceso Bahía Chilota (e-seia)</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -7111,15 +7111,15 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Minera Los Caiquenes Ltda.</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F141" t="n">
-        <v>250</v>
+        <v>203</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>11/12/2002</t>
+          <t>27/01/2003</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
@@ -7129,7 +7129,7 @@
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6108&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=45181&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -7144,7 +7144,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Fábrica de Conductores Eléctricos</t>
+          <t>Exploración Cordón Baquedano</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -7159,15 +7159,15 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Inversiones F y L S.A.</t>
+          <t>Minera Los Caiquenes Ltda.</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>4450</v>
+        <v>250</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>09/10/2002</t>
+          <t>11/12/2002</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
@@ -7177,7 +7177,7 @@
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5884&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6108&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -7192,7 +7192,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Planta para Procesamientos de Productos del Mar Seco - Salados Belocean</t>
+          <t>Fábrica de Conductores Eléctricos</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -7207,15 +7207,15 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>International Seafood S.A</t>
+          <t>Inversiones F y L S.A.</t>
         </is>
       </c>
       <c r="F143" t="n">
-        <v>0</v>
+        <v>4450</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>12/08/2002</t>
+          <t>09/10/2002</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
@@ -7225,7 +7225,7 @@
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5702&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5884&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -7240,7 +7240,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Complejo Agroturístico Estancia San Jorge</t>
+          <t>Planta para Procesamientos de Productos del Mar Seco - Salados Belocean</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -7255,15 +7255,15 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Mladen Tadic Seric</t>
+          <t>International Seafood S.A</t>
         </is>
       </c>
       <c r="F144" t="n">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>19/03/2002</t>
+          <t>12/08/2002</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
@@ -7273,7 +7273,7 @@
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5277&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5702&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -7288,7 +7288,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Planta de Curtiembre para Cueros</t>
+          <t>Complejo Agroturístico Estancia San Jorge</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -7303,25 +7303,25 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Comercial Curtypel Ltda.</t>
+          <t>Mladen Tadic Seric</t>
         </is>
       </c>
       <c r="F145" t="n">
-        <v>2700</v>
+        <v>130</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>14/01/2002</t>
+          <t>19/03/2002</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4997&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5277&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -7336,7 +7336,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Ampliación Planta Nova Austral en Porvenir e Incorporación de Nuevas Líneas de Proceso</t>
+          <t>Planta de Curtiembre para Cueros</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -7351,25 +7351,25 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>Nova Austral S.A.</t>
+          <t>Comercial Curtypel Ltda.</t>
         </is>
       </c>
       <c r="F146" t="n">
-        <v>1500</v>
+        <v>2700</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>21/12/2001</t>
+          <t>14/01/2002</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4910&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4997&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -7384,7 +7384,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de Residuos Industriales Planta Faenadora de Carnes</t>
+          <t>Ampliación Planta Nova Austral en Porvenir e Incorporación de Nuevas Líneas de Proceso</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -7399,15 +7399,15 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Sociedad Agrícola Sacor Ltda.</t>
+          <t>Nova Austral S.A.</t>
         </is>
       </c>
       <c r="F147" t="n">
-        <v>120</v>
+        <v>1500</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>16/10/2001</t>
+          <t>21/12/2001</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
@@ -7417,7 +7417,7 @@
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4501&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4910&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -7432,7 +7432,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Cabo Boquerón (200121018) Río Concordia (200121017) Bahía Inútil Isla Tierra del Fuego</t>
+          <t>Sistema de Tratamiento de Residuos Industriales Planta Faenadora de Carnes</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -7447,25 +7447,25 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Salmones Glaciar de los Andes S.A.</t>
+          <t>Sociedad Agrícola Sacor Ltda.</t>
         </is>
       </c>
       <c r="F148" t="n">
-        <v>2000</v>
+        <v>120</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>03/10/2001</t>
+          <t>16/10/2001</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4410&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4501&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -7480,7 +7480,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales</t>
+          <t>Centro de Engorda de Salmonídeos Cabo Boquerón (200121018) Río Concordia (200121017) Bahía Inútil Isla Tierra del Fuego</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -7490,30 +7490,30 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Duodécima</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>ECOSUR S.A.</t>
+          <t>Salmones Glaciar de los Andes S.A.</t>
         </is>
       </c>
       <c r="F149" t="n">
-        <v>200</v>
+        <v>2000</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>25/09/2001</t>
+          <t>03/10/2001</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4410&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -7528,7 +7528,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Nuevas Líneas de Proceso Planta Nova Austral Porvenir</t>
+          <t>Transporte de Residuos Industriales</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -7538,30 +7538,30 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Duodécima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Nova Austral S.A.</t>
+          <t>ECOSUR S.A.</t>
         </is>
       </c>
       <c r="F150" t="n">
-        <v>1500</v>
+        <v>200</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>29/05/2001</t>
+          <t>25/09/2001</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3932&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -7576,7 +7576,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Construcción y Habilitación de Elaboradora y Procesadora de Productos del Mar BELOCEAN</t>
+          <t>Nuevas Líneas de Proceso Planta Nova Austral Porvenir</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -7591,15 +7591,15 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>International Seafood S.A</t>
+          <t>Nova Austral S.A.</t>
         </is>
       </c>
       <c r="F151" t="n">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>18/05/2001</t>
+          <t>29/05/2001</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
@@ -7609,7 +7609,7 @@
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3904&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3932&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -7624,7 +7624,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Actualización Plan Regulador Comuna de Porvenir</t>
+          <t>Construcción y Habilitación de Elaboradora y Procesadora de Productos del Mar BELOCEAN</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -7639,15 +7639,15 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Porvenir</t>
+          <t>International Seafood S.A</t>
         </is>
       </c>
       <c r="F152" t="n">
-        <v>0</v>
+        <v>1300</v>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>19/04/2001</t>
+          <t>18/05/2001</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
@@ -7657,7 +7657,7 @@
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3809&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3904&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -7672,7 +7672,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Diseño y Construcción Planta de Tratamiento de Aguas Servidas de la Ciudad de Porvenir</t>
+          <t>Actualización Plan Regulador Comuna de Porvenir</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -7687,15 +7687,15 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>Aguas Magallanes S.A.</t>
+          <t>Ilustre Municipalidad de Porvenir</t>
         </is>
       </c>
       <c r="F153" t="n">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>12/04/2001</t>
+          <t>19/04/2001</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
@@ -7705,7 +7705,7 @@
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3812&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3809&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -7720,7 +7720,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Planta Procesadora de Productos Hidrobiológicos Pesquera Bakkavor Chile Porvenir</t>
+          <t>Diseño y Construcción Planta de Tratamiento de Aguas Servidas de la Ciudad de Porvenir</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -7735,15 +7735,15 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>Bakkavor Chile S.A.</t>
+          <t>Aguas Magallanes S.A.</t>
         </is>
       </c>
       <c r="F154" t="n">
-        <v>200</v>
+        <v>1500</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>05/04/2001</t>
+          <t>12/04/2001</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
@@ -7753,7 +7753,7 @@
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3812&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -7768,7 +7768,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Planta de Curtiembre para Cueros de Ovinos</t>
+          <t>Planta Procesadora de Productos Hidrobiológicos Pesquera Bakkavor Chile Porvenir</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -7783,25 +7783,25 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>Comercial Curtypel Ltda.</t>
+          <t>Bakkavor Chile S.A.</t>
         </is>
       </c>
       <c r="F155" t="n">
-        <v>4200</v>
+        <v>200</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>06/12/2000</t>
+          <t>05/04/2001</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3422&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -7816,7 +7816,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Planta de Reproceso de Bacalao</t>
+          <t>Planta de Curtiembre para Cueros de Ovinos</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -7831,25 +7831,25 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>Nova Austral S.A.</t>
+          <t>Comercial Curtypel Ltda.</t>
         </is>
       </c>
       <c r="F156" t="n">
-        <v>1500</v>
+        <v>4200</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>29/08/2000</t>
+          <t>06/12/2000</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3159&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3422&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -7864,7 +7864,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Construcción y Habilitación de Planta Pesquera - Importadora y Exportadora Océano Atlántico Ltda.</t>
+          <t>Planta de Reproceso de Bacalao</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -7879,15 +7879,15 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>Importadora y Exportadora Océano Atlántico Ltda.</t>
+          <t>Nova Austral S.A.</t>
         </is>
       </c>
       <c r="F157" t="n">
-        <v>400</v>
+        <v>1500</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>26/05/2000</t>
+          <t>29/08/2000</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
@@ -7897,7 +7897,7 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2906&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3159&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -7912,7 +7912,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Transporte de Artefactos y/o Materiales Contaminados o que contienen Bifenilospoliclorados (BPC) o Terfenilospoliclorados</t>
+          <t>Construcción y Habilitación de Planta Pesquera - Importadora y Exportadora Océano Atlántico Ltda.</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -7922,20 +7922,20 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Duodécima</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>Compañía de Desarrollo Minero Industrial CHIHOL Ltda.</t>
+          <t>Importadora y Exportadora Océano Atlántico Ltda.</t>
         </is>
       </c>
       <c r="F158" t="n">
-        <v>110</v>
+        <v>400</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>14/02/2000</t>
+          <t>26/05/2000</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
@@ -7945,7 +7945,7 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2686&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2906&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -7960,7 +7960,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Perforación de Pozos de Exploración y Explotación de Hidrocarburos en Tierra</t>
+          <t>Transporte de Artefactos y/o Materiales Contaminados o que contienen Bifenilospoliclorados (BPC) o Terfenilospoliclorados</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -7970,20 +7970,20 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>Duodécima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Empresa Nacional del Petróleo - Magallanes</t>
+          <t>Compañía de Desarrollo Minero Industrial CHIHOL Ltda.</t>
         </is>
       </c>
       <c r="F159" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>19/07/1999</t>
+          <t>14/02/2000</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
@@ -7993,7 +7993,7 @@
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2082&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2686&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -8008,7 +8008,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Habilitación e Implementación Planta Pesquera Artesanal en Porvenir</t>
+          <t>Perforación de Pozos de Exploración y Explotación de Hidrocarburos en Tierra</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -8023,15 +8023,15 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>Sociedad Pesquera Clarencia Limitada</t>
+          <t>Empresa Nacional del Petróleo - Magallanes</t>
         </is>
       </c>
       <c r="F160" t="n">
-        <v>8000</v>
+        <v>0</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>24/11/1998</t>
+          <t>19/07/1999</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
@@ -8041,7 +8041,7 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1474&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2082&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -8056,7 +8056,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Planta Procesadora Recursos del Mar - Bahía Chilota</t>
+          <t>Habilitación e Implementación Planta Pesquera Artesanal en Porvenir</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -8071,15 +8071,15 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>Sociedad Pesquera Bahía Chilota</t>
+          <t>Sociedad Pesquera Clarencia Limitada</t>
         </is>
       </c>
       <c r="F161" t="n">
-        <v>340</v>
+        <v>8000</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>20/11/1997</t>
+          <t>24/11/1998</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
@@ -8089,7 +8089,7 @@
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=337&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1474&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -8104,43 +8104,91 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
+          <t>Planta Procesadora Recursos del Mar - Bahía Chilota</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>Duodécima</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>Sociedad Pesquera Bahía Chilota</t>
+        </is>
+      </c>
+      <c r="F162" t="n">
+        <v>340</v>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>20/11/1997</t>
+        </is>
+      </c>
+      <c r="H162" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I162" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=337&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J162" t="inlineStr">
+        <is>
+          <t>Porvenir</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>162</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
           <t>Complejo Industrial Bahía Gente Grande</t>
         </is>
       </c>
-      <c r="C162" t="inlineStr">
+      <c r="C163" t="inlineStr">
         <is>
           <t>EIA</t>
         </is>
       </c>
-      <c r="D162" t="inlineStr">
-        <is>
-          <t>Duodécima</t>
-        </is>
-      </c>
-      <c r="E162" t="inlineStr">
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>Duodécima</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
         <is>
           <t>Forestal Trillium Ltda.</t>
         </is>
       </c>
-      <c r="F162" t="n">
+      <c r="F163" t="n">
         <v>95000</v>
       </c>
-      <c r="G162" t="inlineStr">
+      <c r="G163" t="inlineStr">
         <is>
           <t>27/03/1996</t>
         </is>
       </c>
-      <c r="H162" t="inlineStr">
+      <c r="H163" t="inlineStr">
         <is>
           <t>Desistido</t>
         </is>
       </c>
-      <c r="I162" t="inlineStr">
+      <c r="I163" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1450&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J162" t="inlineStr">
+      <c r="J163" t="inlineStr">
         <is>
           <t>Porvenir</t>
         </is>

--- a/data/Porvenir.xlsx
+++ b/data/Porvenir.xlsx
@@ -5944,7 +5944,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Saneamiento Ambiental de 148 Fosas Tres Lagos-Flamenco Saneamiento Ambiental de 148 Fosas. (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5954,16 +5954,16 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Duodécima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Empresa Nacional del Petróleo - Magallanes</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>4500</v>
+        <v>200</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
@@ -5972,12 +5972,12 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1899698&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -5992,7 +5992,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Saneamiento Ambiental de 148 Fosas Tres Lagos-Flamenco Saneamiento Ambiental de 148 Fosas. (e-seia)</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -6002,16 +6002,16 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Duodécima</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Empresa Nacional del Petróleo - Magallanes</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>200</v>
+        <v>4500</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
@@ -6020,12 +6020,12 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1899698&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">

--- a/data/Porvenir.xlsx
+++ b/data/Porvenir.xlsx
@@ -5944,7 +5944,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Saneamiento Ambiental de 148 Fosas Tres Lagos-Flamenco Saneamiento Ambiental de 148 Fosas. (e-seia)</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5954,16 +5954,16 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Duodécima</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Empresa Nacional del Petróleo - Magallanes</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>200</v>
+        <v>4500</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
@@ -5972,12 +5972,12 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1899698&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -5992,7 +5992,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Saneamiento Ambiental de 148 Fosas Tres Lagos-Flamenco Saneamiento Ambiental de 148 Fosas. (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -6002,16 +6002,16 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Duodécima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Empresa Nacional del Petróleo - Magallanes</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>4500</v>
+        <v>200</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
@@ -6020,12 +6020,12 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1899698&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">

--- a/data/Porvenir.xlsx
+++ b/data/Porvenir.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>11/08/2022</t>
+          <t>16/09/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Ingresados Art.94 RSEIA</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Porvenir.xlsx
+++ b/data/Porvenir.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>16/09/2022</t>
+          <t>24/08/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Porvenir.xlsx
+++ b/data/Porvenir.xlsx
@@ -679,7 +679,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>YPF Chile S.A.</t>
+          <t>FIELD DEVELOPMENT CONSULTANTS DE CHILE LIMITADA</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -919,7 +919,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>YPF Chile S.A.</t>
+          <t>FIELD DEVELOPMENT CONSULTANTS DE CHILE LIMITADA</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -2119,7 +2119,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>YPF Chile S.A.</t>
+          <t>FIELD DEVELOPMENT CONSULTANTS DE CHILE LIMITADA</t>
         </is>
       </c>
       <c r="F37" t="n">

--- a/data/Porvenir.xlsx
+++ b/data/Porvenir.xlsx
@@ -452,7 +452,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -5944,7 +5944,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Saneamiento Ambiental de 148 Fosas Tres Lagos-Flamenco Saneamiento Ambiental de 148 Fosas. (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5954,16 +5954,16 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Duodécima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Empresa Nacional del Petróleo - Magallanes</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>4500</v>
+        <v>200</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
@@ -5972,12 +5972,12 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1899698&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -5992,7 +5992,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Saneamiento Ambiental de 148 Fosas Tres Lagos-Flamenco Saneamiento Ambiental de 148 Fosas. (e-seia)</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -6002,16 +6002,16 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Duodécima</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Empresa Nacional del Petróleo - Magallanes</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>200</v>
+        <v>4500</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
@@ -6020,12 +6020,12 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1899698&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
